--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{467C7F4A-9211-47A9-A0BB-5AC00319A905}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C02EBF82-B786-43B0-8E96-BED5C588359E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>Dataset</t>
   </si>
@@ -264,12 +264,27 @@
   </si>
   <si>
     <t>Decreasing primary capsule  worked without the loss</t>
+  </si>
+  <si>
+    <t>Mod-2.7</t>
+  </si>
+  <si>
+    <t>Mod-2.8</t>
+  </si>
+  <si>
+    <t>Mod-3.1</t>
+  </si>
+  <si>
+    <t>Mod-3.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#.00,,"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -762,7 +777,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -780,6 +795,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -825,7 +841,447 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1360,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1827,7 @@
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1867,20 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1452,8 +1920,20 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1493,8 +1973,20 @@
       <c r="M3">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="O3" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="P3" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>5229632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1534,8 +2026,20 @@
       <c r="M4" s="2">
         <v>0.98670000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>0.98680001497268599</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.98400002717971802</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.98790001869201605</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.98710000514984098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1575,8 +2079,20 @@
       <c r="M5" s="2">
         <v>0.9274</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>0.93580001592636097</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.92110002040863004</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.94010001420974698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1616,8 +2132,20 @@
       <c r="M6" s="2">
         <v>0.89449999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>0.90770000219345004</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.88669997453689497</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.91219997406005804</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.90969997644424405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1657,8 +2185,20 @@
       <c r="M7" s="2">
         <v>0.93579999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>0.94316666666666604</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.93027166666666605</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.94735333333333305</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.94533833333333295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1698,8 +2238,20 @@
       <c r="M8" s="2">
         <v>0.93740000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.94893333333333296</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.94730000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1739,8 +2291,20 @@
       <c r="M9" s="2">
         <v>0.93640000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>0.94368095238095195</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.93124523809523796</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.94800833333333301</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.946154761904761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1780,8 +2344,20 @@
       <c r="M10" s="2">
         <v>0.99099999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1821,8 +2397,20 @@
       <c r="M11" s="2">
         <v>0.89159999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.90580000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1862,8 +2450,20 @@
       <c r="M14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1903,8 +2503,20 @@
       <c r="M15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1938,8 +2550,20 @@
       <c r="K16">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="O16" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="P16" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>7845184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1973,8 +2597,20 @@
       <c r="K17" s="2">
         <v>0.86780000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <v>0.861500024795532</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.85360002517700195</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2008,8 +2644,20 @@
       <c r="K18" s="2">
         <v>0.78879999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <v>0.774500012397766</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.76630002260208097</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2043,8 +2691,20 @@
       <c r="K19" s="2">
         <v>0.56859999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>0.61180001497268599</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0.60070002079009999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2078,8 +2738,20 @@
       <c r="K20" s="2">
         <v>0.73970000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>0.74747999999999903</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.73819666666666595</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.77838166666666597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2113,8 +2785,20 @@
       <c r="K21" s="2">
         <v>0.754</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.75376666666666603</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.79559999999999897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2148,8 +2832,20 @@
       <c r="K22" s="2">
         <v>0.74519999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>0.75331111111111104</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.74424444444444404</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.78515198412698395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2183,8 +2879,20 @@
       <c r="K23" s="2">
         <v>0.9103</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2218,107 +2926,22 @@
       <c r="K24" s="2">
         <v>0.55679999999999996</v>
       </c>
+      <c r="N24" s="2">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.64410000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B6:M6">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
-      <formula>$B$6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="30" operator="greaterThan">
-      <formula>$B$6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:M4">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
-      <formula>$B$4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="29" operator="greaterThan">
-      <formula>$B$4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:M5">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
-      <formula>$B$5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="greaterThan">
-      <formula>$B$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:M7">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="greaterThan">
-      <formula>$B$7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:M8">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
-      <formula>$B$8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:M9">
-    <cfRule type="cellIs" dxfId="13" priority="25" operator="greaterThan">
-      <formula>$B$9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:M10">
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="greaterThan">
-      <formula>$B$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:M11">
-    <cfRule type="cellIs" dxfId="11" priority="23" operator="greaterThan">
-      <formula>$B$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:K16">
-    <cfRule type="cellIs" dxfId="10" priority="19" operator="greaterThan">
-      <formula>$B$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:K17">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="greaterThan">
-      <formula>$B$17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:K18">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
-      <formula>$B$18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:K19">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="greaterThan">
-      <formula>$B$19</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
-      <formula>$B$19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:K20">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="greaterThan">
-      <formula>$B$20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:K21">
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="greaterThan">
-      <formula>$B$21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:K22">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="greaterThan">
-      <formula>$B$22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:K23">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="greaterThan">
-      <formula>$B$23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:K24">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>$B$24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:M4">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="B3:Q3">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2329,7 +2952,103 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M5">
+  <conditionalFormatting sqref="B4:Q4">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:Q5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:Q6">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:Q7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:Q8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:Q9">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:Q10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:Q11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:Q17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2341,7 +3060,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:M6">
+  <conditionalFormatting sqref="B18:Q18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2353,7 +3072,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:M7">
+  <conditionalFormatting sqref="B19:Q19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2365,10 +3084,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:M8">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>$H$8</formula>
+  <conditionalFormatting sqref="B20:Q20">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:Q21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2380,7 +3108,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H9:M9">
+  <conditionalFormatting sqref="B22:Q22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2392,7 +3120,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:M10">
+  <conditionalFormatting sqref="B23:Q23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2404,7 +3132,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:M11">
+  <conditionalFormatting sqref="B24:Q24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2425,9 +3153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2853-D516-48B7-9C6C-D2BAE28B57DC}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C02EBF82-B786-43B0-8E96-BED5C588359E}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A043F01F-A255-4BAF-A805-75EBF8991AA2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
   <si>
     <t>Dataset</t>
   </si>
@@ -276,6 +276,23 @@
   </si>
   <si>
     <t>Mod-3.2</t>
+  </si>
+  <si>
+    <t>Mod-2.1 vs Mod-2.7</t>
+  </si>
+  <si>
+    <t>Top-Down [Coarse-to-Fine] Change in Secondary Capsule, With Lc, p = 8D;
+32D&gt;16D&gt;8D VS 32D&gt;24D&gt;16D</t>
+  </si>
+  <si>
+    <t>Top-Down [Coarse-to-Fine] Change in Secondary Capsule, Without Lc, p = 8D;
+32D&gt;16D&gt;8D VS 32D&gt;24D&gt;16D</t>
+  </si>
+  <si>
+    <t>Mod-2.3 vs Mod-2.8</t>
+  </si>
+  <si>
+    <t>Increasing Secondary capsule dimension  improved the performance</t>
   </si>
 </sst>
 </file>
@@ -841,668 +858,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1818,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17:Q24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3151,11 +2507,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2853-D516-48B7-9C6C-D2BAE28B57DC}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13:Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,7 +2519,7 @@
     <col min="1" max="16384" width="29.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -3209,8 +2565,14 @@
       <c r="O1" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="P1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -3256,8 +2618,14 @@
       <c r="O2" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -3317,8 +2685,16 @@
         <f>Results!J3-Results!M3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="4">
+        <f>Results!H3-Results!N3</f>
+        <v>-4857915.16</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>Results!J3-Results!O3</f>
+        <v>-4857915.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -3378,8 +2754,16 @@
         <f>Results!J4-Results!M4</f>
         <v>-3.4000000000000696E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <f>Results!H4-Results!N4</f>
+        <v>7.9998502731404297E-4</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Results!J4-Results!O4</f>
+        <v>-7.0002717971806572E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -3439,8 +2823,16 @@
         <f>Results!J5-Results!M5</f>
         <v>-1.6100000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <f>Results!H5-Results!N5</f>
+        <v>-2.2000159263609875E-3</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>Results!J5-Results!O5</f>
+        <v>-9.8000204086300391E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -3500,8 +2892,16 @@
         <f>Results!J6-Results!M6</f>
         <v>-1.8000000000000016E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <f>Results!H6-Results!N6</f>
+        <v>-5.1000021934500817E-3</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Results!J6-Results!O6</f>
+        <v>-1.0199974536895029E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -3561,8 +2961,16 @@
         <f>Results!J7-Results!M7</f>
         <v>-1.2599999999999945E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <f>Results!H7-Results!N7</f>
+        <v>-2.266666666666084E-3</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>Results!J7-Results!O7</f>
+        <v>-7.0716666666660322E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -3622,8 +3030,16 @@
         <f>Results!J8-Results!M8</f>
         <v>-1.2000000000000011E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <f>Results!H8-Results!N8</f>
+        <v>-1.4000000000000679E-3</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Results!J8-Results!O8</f>
+        <v>-7.1999999999999842E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -3683,8 +3099,16 @@
         <f>Results!J9-Results!M9</f>
         <v>-1.2299999999999978E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <f>Results!H9-Results!N9</f>
+        <v>-1.8809523809519835E-3</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>Results!J9-Results!O9</f>
+        <v>-7.1452380952379269E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -3744,8 +3168,16 @@
         <f>Results!J10-Results!M10</f>
         <v>-3.4999999999999476E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <f>Results!H10-Results!N10</f>
+        <v>-3.6000000000000476E-3</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>Results!J10-Results!O10</f>
+        <v>-8.9999999999990088E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -3805,8 +3237,16 @@
         <f>Results!J11-Results!M11</f>
         <v>-1.9099999999999895E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="P11" s="4">
+        <f>Results!H11-Results!N11</f>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>Results!J11-Results!O11</f>
+        <v>-9.199999999999986E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -3851,6 +3291,12 @@
       </c>
       <c r="O13" s="3" t="s">
         <v>69</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3861,11 +3307,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E36-B427-41AC-A8E9-32AE9C4E0B55}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3873,7 +3319,7 @@
     <col min="1" max="16384" width="29.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -3892,8 +3338,41 @@
       <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -3912,8 +3391,41 @@
       <c r="F2" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
@@ -3937,8 +3449,16 @@
         <f>Results!E16-Results!G16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="4">
+        <f>Results!H16-Results!N16</f>
+        <v>-6104378.4500000002</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>Results!J16-Results!O16</f>
+        <v>-6104378.4500000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -3962,8 +3482,16 @@
         <f>Results!E17-Results!G17</f>
         <v>4.7999999999999154E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <f>Results!H17-Results!N17</f>
+        <v>4.1999752044680205E-3</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>Results!J17-Results!O17</f>
+        <v>6.6999748229980005E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -3987,8 +3515,16 @@
         <f>Results!E18-Results!G18</f>
         <v>9.4999999999999529E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <f>Results!H18-Results!N18</f>
+        <v>8.799987602233994E-3</v>
+      </c>
+      <c r="Q5" s="4">
+        <f>Results!J18-Results!O18</f>
+        <v>8.4999773979190785E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -4012,8 +3548,16 @@
         <f>Results!E19-Results!G19</f>
         <v>6.5200000000000036E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <f>Results!H19-Results!N19</f>
+        <v>-4.1000014972686016E-2</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>Results!J19-Results!O19</f>
+        <v>-3.0600020790099935E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -4037,8 +3581,16 @@
         <f>Results!E20-Results!G20</f>
         <v>2.3900000000000032E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <f>Results!H20-Results!N20</f>
+        <v>-8.8799999999989998E-3</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>Results!J20-Results!O20</f>
+        <v>-4.7966666666658941E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
@@ -4062,8 +3614,16 @@
         <f>Results!E21-Results!G21</f>
         <v>2.7100000000000013E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <f>Results!H21-Results!N21</f>
+        <v>-1.2499999999999956E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <f>Results!J21-Results!O21</f>
+        <v>-6.4666666666660655E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>20</v>
       </c>
@@ -4087,8 +3647,16 @@
         <f>Results!E22-Results!G22</f>
         <v>2.5000000000000022E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <f>Results!H22-Results!N22</f>
+        <v>-1.021111111111106E-2</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>Results!J22-Results!O22</f>
+        <v>-5.4444444444440299E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -4112,8 +3680,16 @@
         <f>Results!E23-Results!G23</f>
         <v>-2.0000000000000018E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <f>Results!H23-Results!N23</f>
+        <v>1.8299999999999983E-2</v>
+      </c>
+      <c r="Q10" s="4">
+        <f>Results!J23-Results!O23</f>
+        <v>1.0400000000000076E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -4137,8 +3713,16 @@
         <f>Results!E24-Results!G24</f>
         <v>6.5100000000000047E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="P11" s="4">
+        <f>Results!H24-Results!N24</f>
+        <v>-3.4199999999999897E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <f>Results!J24-Results!O24</f>
+        <v>-2.7200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
@@ -4156,6 +3740,12 @@
       </c>
       <c r="F13" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A043F01F-A255-4BAF-A805-75EBF8991AA2}"/>
+  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270EFFD4-D006-4795-A6AD-B341C2C104BD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId2"/>
-    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId3"/>
+    <sheet name="Result_Summary" sheetId="4" r:id="rId2"/>
+    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId3"/>
+    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="90">
   <si>
     <t>Dataset</t>
   </si>
@@ -111,9 +112,6 @@
   <si>
     <t>Total  Trainable 
 params (M)</t>
-  </si>
-  <si>
-    <t>Total  Trainable &lt;br /&gt;params (M)</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -293,6 +291,47 @@
   </si>
   <si>
     <t>Increasing Secondary capsule dimension  improved the performance</t>
+  </si>
+  <si>
+    <t>Total  Trainable
+params (M)</t>
+  </si>
+  <si>
+    <t>Mod-3.3</t>
+  </si>
+  <si>
+    <t>Mod-3.4</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>HD-CapsNet (W/O Lc)</t>
+  </si>
+  <si>
+    <t>HD-CapsNet
+(W/O Lc)</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Primary Capsule Dimention</t>
+  </si>
+  <si>
+    <t>Secondary Capsule Dimention
+(Coarse)</t>
+  </si>
+  <si>
+    <t>Secondary Capsule Dimention
+(Medium)</t>
+  </si>
+  <si>
+    <t>Secondary Capsule Dimention
+(Fine)</t>
+  </si>
+  <si>
+    <t>Loss Function</t>
   </si>
 </sst>
 </file>
@@ -302,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#.00,,"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +472,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -794,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -813,6 +858,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1172,18 +1226,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="18" max="19" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,8 +1292,14 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1277,21 +1340,27 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>71</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>5.04</v>
@@ -1341,8 +1410,14 @@
       <c r="Q3" s="7">
         <v>5229632</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="S3" s="7">
+        <v>5802304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1394,8 +1469,14 @@
       <c r="Q4" s="2">
         <v>0.98710000514984098</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="2">
+        <v>0.98820000886917103</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.98729997873306197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1447,8 +1528,14 @@
       <c r="Q5" s="2">
         <v>0.94010001420974698</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="2">
+        <v>0.93959999084472601</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.94150000810623102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1500,8 +1587,14 @@
       <c r="Q6" s="2">
         <v>0.90969997644424405</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="2">
+        <v>0.91259998083114602</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.91240000724792403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1553,8 +1646,14 @@
       <c r="Q7" s="2">
         <v>0.94533833333333295</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="2">
+        <v>0.946481666666666</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.94649499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1606,8 +1705,14 @@
       <c r="Q8" s="2">
         <v>0.94730000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="2">
+        <v>0.94816666666666605</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.94830000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1659,8 +1764,14 @@
       <c r="Q9" s="2">
         <v>0.946154761904761</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="2">
+        <v>0.94719166666666599</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.94725357142857103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1712,8 +1823,14 @@
       <c r="Q10" s="2">
         <v>0.9899</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="2">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1765,8 +1882,14 @@
       <c r="Q11" s="2">
         <v>0.90580000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.9093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1818,8 +1941,14 @@
       <c r="Q14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1860,21 +1989,27 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" t="s">
         <v>70</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>71</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>8.52</v>
@@ -1918,8 +2053,14 @@
       <c r="Q16" s="7">
         <v>7845184</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="S16" s="7">
+        <v>11676992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1965,8 +2106,14 @@
       <c r="Q17" s="2">
         <v>0.86809998750686601</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="2">
+        <v>0.86949998140335005</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.872699975967407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2012,8 +2159,14 @@
       <c r="Q18" s="2">
         <v>0.78729999065399103</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="2">
+        <v>0.78759998083114602</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0.79060000181198098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2059,8 +2212,14 @@
       <c r="Q19" s="2">
         <v>0.66229999065399103</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="2">
+        <v>0.66060000658035201</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0.66610002517700195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2106,8 +2265,14 @@
       <c r="Q20" s="2">
         <v>0.77838166666666597</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="2">
+        <v>0.77074500000000001</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.773963333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2153,8 +2318,14 @@
       <c r="Q21" s="2">
         <v>0.79559999999999897</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="2">
+        <v>0.78986666666666605</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.79303333333333303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2200,8 +2371,14 @@
       <c r="Q22" s="2">
         <v>0.78515198412698395</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="2">
+        <v>0.77824126984126896</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.781436111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2247,8 +2424,14 @@
       <c r="Q23" s="2">
         <v>0.89780000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2294,8 +2477,15 @@
       <c r="Q24" s="2">
         <v>0.64410000000000001</v>
       </c>
+      <c r="R24" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0.63929999999999998</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B3:Q3">
     <cfRule type="colorScale" priority="23">
       <colorScale>
@@ -2308,7 +2498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:Q4">
+  <conditionalFormatting sqref="B4:S4">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -2320,7 +2510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:Q5">
+  <conditionalFormatting sqref="B5:S5">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2332,7 +2522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:Q6">
+  <conditionalFormatting sqref="B6:S6">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2344,7 +2534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:Q7">
+  <conditionalFormatting sqref="B7:S7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -2356,7 +2546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:Q8">
+  <conditionalFormatting sqref="B8:S8">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -2368,7 +2558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:Q9">
+  <conditionalFormatting sqref="B9:S9">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -2380,7 +2570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:Q10">
+  <conditionalFormatting sqref="B10:S10">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -2392,7 +2582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:Q11">
+  <conditionalFormatting sqref="B11:S11">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2404,7 +2594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:Q17">
+  <conditionalFormatting sqref="B17:S17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2416,7 +2606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Q18">
+  <conditionalFormatting sqref="B18:S18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2428,7 +2618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:Q19">
+  <conditionalFormatting sqref="B19:S19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2440,7 +2630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20:Q20">
+  <conditionalFormatting sqref="B20:S20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2452,7 +2642,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:Q21">
+  <conditionalFormatting sqref="B21:S21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2464,7 +2654,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:Q22">
+  <conditionalFormatting sqref="B22:S22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2476,7 +2666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:Q23">
+  <conditionalFormatting sqref="B23:S23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2488,7 +2678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:Q24">
+  <conditionalFormatting sqref="B24:S24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2506,6 +2696,1331 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E26FB0C-CD72-44F6-B86B-578CAEA29634}">
+  <dimension ref="A2:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5.04</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>5.04</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5.03</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.9456</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.94720000000000004</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.90890000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4.74</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.87890000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.92859999999999998</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5.03</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.9466</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4.74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4.84</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>4.84</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.9788</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.8528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>4.84</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.9113</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.9254</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>4.84</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>4.84</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.87470000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>4.84</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.9274</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98680001497268599</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.93580001592636097</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.90770000219345004</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.94316666666666604</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.94368095238095195</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.98400002717971802</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.92110002040863004</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.88669997453689497</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.93027166666666605</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.93124523809523796</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.88170000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.98790001869201605</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.91219997406005804</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.94735333333333305</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.94893333333333296</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.94800833333333301</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.98710000514984098</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.94010001420974698</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.90969997644424405</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.94533833333333295</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.946154761904761</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.90580000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.98820000886917103</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.93959999084472601</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.91259998083114602</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.946481666666666</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.94816666666666605</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.94719166666666599</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98729997873306197</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.94150000810623102</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.94649499999999998</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.94725357142857103</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.9093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>8.52</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23">
+        <v>8.52</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.62529999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.7873</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.64039999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>5.22</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.7873</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.75509999999999999</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.76970000000000005</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.60440000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.62390000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>5.22</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.9264</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.5393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>5.55</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.7833</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>5.55</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.874</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>5.55</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>5.55</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.861500024795532</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.774500012397766</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.61180001497268599</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.74747999999999903</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.75331111111111104</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.59519999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.85360002517700195</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.76630002260208097</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.60070002079009999</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.73819666666666595</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.75376666666666603</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.74424444444444404</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.77838166666666597</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.79559999999999897</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.78515198412698395</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.86949998140335005</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.78759998083114602</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.66060000658035201</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.77074500000000001</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.78986666666666605</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.77824126984126896</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.872699975967407</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.79060000181198098</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.66610002517700195</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.773963333333333</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.79303333333333303</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.781436111111111</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.63929999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2853-D516-48B7-9C6C-D2BAE28B57DC}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -2521,108 +4036,108 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3248,55 +4763,55 @@
     </row>
     <row r="13" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3305,11 +4820,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E36-B427-41AC-A8E9-32AE9C4E0B55}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P13" sqref="P13"/>
     </sheetView>
@@ -3321,108 +4836,108 @@
   <sheetData>
     <row r="1" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3724,28 +5239,28 @@
     </row>
     <row r="13" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="364" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{270EFFD4-D006-4795-A6AD-B341C2C104BD}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25987FB8-12AA-4ABA-B3D6-87D92F0EC460}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
   <si>
     <t>Dataset</t>
   </si>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>Loss Function</t>
+  </si>
+  <si>
+    <t>CU Bird</t>
+  </si>
+  <si>
+    <t>Stanford Cars</t>
+  </si>
+  <si>
+    <t>EMNIST</t>
+  </si>
+  <si>
+    <t>Fashion MNIST</t>
   </si>
 </sst>
 </file>
@@ -2697,13 +2709,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E26FB0C-CD72-44F6-B86B-578CAEA29634}">
-  <dimension ref="A2:T39"/>
+  <dimension ref="A2:T63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,9 +2723,9 @@
     <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -2789,494 +2801,322 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5.04</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.94630000000000003</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.90749999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>5.04</v>
+        <v>71</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4908992</v>
       </c>
       <c r="D4" s="2">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.93810000000000004</v>
-      </c>
+        <v>0.94319146871566695</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2">
-        <v>0.90839999999999999</v>
+        <v>0.89281916618347101</v>
       </c>
       <c r="G4" s="2">
-        <v>0.94410000000000005</v>
+        <v>0.91801418439716298</v>
       </c>
       <c r="H4" s="2">
-        <v>0.94589999999999996</v>
+        <v>0.92007978723404205</v>
       </c>
       <c r="I4" s="2">
-        <v>0.94479999999999997</v>
+        <v>0.91884042553191403</v>
       </c>
       <c r="J4" s="2">
-        <v>0.99060000000000004</v>
+        <v>0.99154255319148898</v>
       </c>
       <c r="K4" s="2">
-        <v>0.90559999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>1</v>
+        <v>0.88888297872340405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5.03</v>
+        <v>72</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4908992</v>
       </c>
       <c r="D5" s="2">
-        <v>0.98709999999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.93959999999999999</v>
-      </c>
+        <v>0.94223403930663996</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>0.91159999999999997</v>
+        <v>0.89388298988342196</v>
       </c>
       <c r="G5" s="2">
-        <v>0.9456</v>
+        <v>0.91813829787234003</v>
       </c>
       <c r="H5" s="2">
-        <v>0.94720000000000004</v>
+        <v>0.91984042553191403</v>
       </c>
       <c r="I5" s="2">
-        <v>0.94620000000000004</v>
+        <v>0.91881914893617</v>
       </c>
       <c r="J5" s="2">
-        <v>0.99129999999999996</v>
+        <v>0.99303191489361697</v>
       </c>
       <c r="K5" s="2">
-        <v>0.90890000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>1</v>
+        <v>0.89063829787233995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>4.74</v>
+        <v>79</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5153984</v>
       </c>
       <c r="D6" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.91830000000000001</v>
-      </c>
+        <v>0.94265955686569203</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
-        <v>0.87890000000000001</v>
+        <v>0.89324468374252297</v>
       </c>
       <c r="G6" s="2">
-        <v>0.92569999999999997</v>
+        <v>0.91801418439716298</v>
       </c>
       <c r="H6" s="2">
-        <v>0.92859999999999998</v>
+        <v>0.92</v>
       </c>
       <c r="I6" s="2">
-        <v>0.92689999999999995</v>
+        <v>0.91880851063829705</v>
       </c>
       <c r="J6" s="2">
-        <v>0.98460000000000003</v>
+        <v>0.99207446808510602</v>
       </c>
       <c r="K6" s="2">
-        <v>0.87419999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
+        <v>0.88925531914893596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>5.03</v>
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>5153984</v>
       </c>
       <c r="D7" s="2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.93859999999999999</v>
-      </c>
+        <v>0.94436168670654297</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2">
-        <v>0.9103</v>
+        <v>0.89877659082412698</v>
       </c>
       <c r="G7" s="2">
+        <v>0.92168439716312001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.92319148936170203</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.92228723404255297</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.99404255319148904</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.89569148936170195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97790002822875899</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.94830000400543202</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.97509833333333296</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.97543333333333304</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.97524047619047605</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.99889999628067005</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.97780001163482599</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.94919997453689497</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.97586666666666599</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.97551785714285699</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.94769999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4989120</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.99900001287460305</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.97689998149871804</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.946399986743927</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.97383666666666602</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.97407738095238094</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="K12" s="2">
         <v>0.94550000000000001</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.9466</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.99380000000000002</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>4.74</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.93010000000000004</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.89670000000000005</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.93730000000000002</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.93820000000000003</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.98950000000000005</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>4.84</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.93359999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.90259999999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.94089999999999996</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.89849999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>4.84</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.9788</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.89790000000000003</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.85829999999999995</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.91120000000000001</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.91239999999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.98440000000000005</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.8528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>4.84</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.9113</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.92320000000000002</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.9254</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.92410000000000003</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.87250000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>4.84</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.98240000000000005</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.90959999999999996</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.87239999999999995</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.92090000000000005</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.98619999999999997</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>1</v>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>4.84</v>
+        <v>80</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4989120</v>
       </c>
       <c r="D13" s="2">
-        <v>0.98409999999999997</v>
+        <v>0.99919998645782404</v>
       </c>
       <c r="E13" s="2">
-        <v>0.91420000000000001</v>
+        <v>0.97820001840591397</v>
       </c>
       <c r="F13" s="2">
-        <v>0.87960000000000005</v>
+        <v>0.94950002431869496</v>
       </c>
       <c r="G13" s="2">
-        <v>0.92549999999999999</v>
+        <v>0.97548999999999997</v>
       </c>
       <c r="H13" s="2">
-        <v>0.92800000000000005</v>
+        <v>0.97589999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>0.92659999999999998</v>
+        <v>0.97566428571428498</v>
       </c>
       <c r="J13" s="2">
-        <v>0.98650000000000004</v>
+        <v>0.99780000000000002</v>
       </c>
       <c r="K13" s="2">
-        <v>0.87470000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>4.84</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.9274</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.93579999999999997</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.89159999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="7">
-        <v>4857920</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.98680001497268599</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.93580001592636097</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.90770000219345004</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.94316666666666604</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.94368095238095195</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.90549999999999997</v>
-      </c>
-    </row>
+        <v>0.94879999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4857920</v>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>5.04</v>
       </c>
       <c r="D16" s="2">
-        <v>0.98400002717971802</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="E16" s="2">
-        <v>0.92110002040863004</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F16" s="2">
-        <v>0.88669997453689497</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="G16" s="2">
-        <v>0.93027166666666605</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="H16" s="2">
-        <v>0.93259999999999998</v>
+        <v>0.94630000000000003</v>
       </c>
       <c r="I16" s="2">
-        <v>0.93124523809523796</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="J16" s="2">
-        <v>0.98839999999999995</v>
+        <v>0.99080000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>0.88170000000000004</v>
+        <v>0.90749999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3284,34 +3124,34 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5229632</v>
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>5.04</v>
       </c>
       <c r="D17" s="2">
-        <v>0.98790001869201605</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="E17" s="2">
-        <v>0.94279998540878296</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="F17" s="2">
-        <v>0.91219997406005804</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="G17" s="2">
-        <v>0.94735333333333305</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="H17" s="2">
-        <v>0.94893333333333296</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="I17" s="2">
-        <v>0.94800833333333301</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="J17" s="2">
-        <v>0.99180000000000001</v>
+        <v>0.99060000000000004</v>
       </c>
       <c r="K17" s="2">
-        <v>0.90949999999999998</v>
+        <v>0.90559999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3319,34 +3159,34 @@
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5229632</v>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5.03</v>
       </c>
       <c r="D18" s="2">
-        <v>0.98710000514984098</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="E18" s="2">
-        <v>0.94010001420974698</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>0.90969997644424405</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="G18" s="2">
-        <v>0.94533833333333295</v>
+        <v>0.9456</v>
       </c>
       <c r="H18" s="2">
-        <v>0.94730000000000003</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="I18" s="2">
-        <v>0.946154761904761</v>
+        <v>0.94620000000000004</v>
       </c>
       <c r="J18" s="2">
-        <v>0.9899</v>
+        <v>0.99129999999999996</v>
       </c>
       <c r="K18" s="2">
-        <v>0.90580000000000005</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3354,34 +3194,34 @@
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5802304</v>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>4.74</v>
       </c>
       <c r="D19" s="2">
-        <v>0.98820000886917103</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="E19" s="2">
-        <v>0.93959999084472601</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>0.91259998083114602</v>
+        <v>0.87890000000000001</v>
       </c>
       <c r="G19" s="2">
-        <v>0.946481666666666</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="H19" s="2">
-        <v>0.94816666666666605</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="I19" s="2">
-        <v>0.94719166666666599</v>
+        <v>0.92689999999999995</v>
       </c>
       <c r="J19" s="2">
-        <v>0.99109999999999998</v>
+        <v>0.98460000000000003</v>
       </c>
       <c r="K19" s="2">
-        <v>0.90900000000000003</v>
+        <v>0.87419999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3389,453 +3229,489 @@
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5802304</v>
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>5.03</v>
       </c>
       <c r="D20" s="2">
-        <v>0.98729997873306197</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="E20" s="2">
-        <v>0.94150000810623102</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>0.91240000724792403</v>
+        <v>0.9103</v>
       </c>
       <c r="G20" s="2">
-        <v>0.94649499999999998</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>0.94830000000000003</v>
+        <v>0.9466</v>
       </c>
       <c r="I20" s="2">
-        <v>0.94725357142857103</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="J20" s="2">
-        <v>0.98980000000000001</v>
+        <v>0.99380000000000002</v>
       </c>
       <c r="K20" s="2">
-        <v>0.9093</v>
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>4.74</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.89670000000000005</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.93820000000000003</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.89280000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>8.52</v>
+        <v>4.84</v>
       </c>
       <c r="D22" s="2">
-        <v>0.86850000000000005</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="E22" s="2">
-        <v>0.79139999999999999</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="F22" s="2">
-        <v>0.66180000000000005</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="G22" s="2">
-        <v>0.77070000000000005</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="H22" s="2">
-        <v>0.78820000000000001</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="I22" s="2">
-        <v>0.77749999999999997</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="J22" s="2">
-        <v>0.90369999999999995</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="K22" s="2">
-        <v>0.64080000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>8.52</v>
+        <v>4.84</v>
       </c>
       <c r="D23" s="2">
-        <v>0.86029999999999995</v>
+        <v>0.9788</v>
       </c>
       <c r="E23" s="2">
-        <v>0.77829999999999999</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="F23" s="2">
-        <v>0.64870000000000005</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="G23" s="2">
-        <v>0.76039999999999996</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="H23" s="2">
-        <v>0.77869999999999995</v>
+        <v>0.91410000000000002</v>
       </c>
       <c r="I23" s="2">
-        <v>0.76749999999999996</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="J23" s="2">
-        <v>0.89810000000000001</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="K23" s="2">
-        <v>0.62529999999999997</v>
+        <v>0.8528</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>8.3699999999999992</v>
+        <v>4.84</v>
       </c>
       <c r="D24" s="2">
-        <v>0.86750000000000005</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="E24" s="2">
-        <v>0.78949999999999998</v>
+        <v>0.9113</v>
       </c>
       <c r="F24" s="2">
-        <v>0.66169999999999995</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="G24" s="2">
-        <v>0.77</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="H24" s="2">
-        <v>0.7873</v>
+        <v>0.9254</v>
       </c>
       <c r="I24" s="2">
-        <v>0.77680000000000005</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="J24" s="2">
-        <v>0.9</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="K24" s="2">
-        <v>0.64039999999999997</v>
+        <v>0.87250000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>5.22</v>
+        <v>4.84</v>
       </c>
       <c r="D25" s="2">
-        <v>0.86929999999999996</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="E25" s="2">
-        <v>0.7873</v>
+        <v>0.90959999999999996</v>
       </c>
       <c r="F25" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="G25" s="2">
-        <v>0.75509999999999999</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="H25" s="2">
-        <v>0.76970000000000005</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="I25" s="2">
-        <v>0.76070000000000004</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="J25" s="2">
-        <v>0.90639999999999998</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="K25" s="2">
-        <v>0.60440000000000005</v>
+        <v>0.86750000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>8.3699999999999992</v>
+        <v>4.84</v>
       </c>
       <c r="D26" s="2">
-        <v>0.86180000000000001</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="E26" s="2">
-        <v>0.78310000000000002</v>
+        <v>0.91420000000000001</v>
       </c>
       <c r="F26" s="2">
-        <v>0.64690000000000003</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="G26" s="2">
-        <v>0.76139999999999997</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="H26" s="2">
-        <v>0.77980000000000005</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="I26" s="2">
-        <v>0.76859999999999995</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="J26" s="2">
-        <v>0.89829999999999999</v>
+        <v>0.98650000000000004</v>
       </c>
       <c r="K26" s="2">
-        <v>0.62390000000000001</v>
+        <v>0.87470000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>5.22</v>
+        <v>4.84</v>
       </c>
       <c r="D27" s="2">
-        <v>0.86450000000000005</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>0.77780000000000005</v>
+        <v>0.9274</v>
       </c>
       <c r="F27" s="2">
-        <v>0.55179999999999996</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="G27" s="2">
-        <v>0.73119999999999996</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="H27" s="2">
-        <v>0.74260000000000004</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="I27" s="2">
-        <v>0.73570000000000002</v>
+        <v>0.93640000000000001</v>
       </c>
       <c r="J27" s="2">
-        <v>0.9264</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>0.5393</v>
+        <v>0.89159999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>5.55</v>
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4857920</v>
       </c>
       <c r="D28" s="2">
-        <v>0.86570000000000003</v>
+        <v>0.98680001497268599</v>
       </c>
       <c r="E28" s="2">
-        <v>0.7833</v>
+        <v>0.93580001592636097</v>
       </c>
       <c r="F28" s="2">
-        <v>0.57079999999999997</v>
+        <v>0.90770000219345004</v>
       </c>
       <c r="G28" s="2">
-        <v>0.73860000000000003</v>
+        <v>0.94316666666666604</v>
       </c>
       <c r="H28" s="2">
-        <v>0.75</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="I28" s="2">
-        <v>0.74309999999999998</v>
+        <v>0.94368095238095195</v>
       </c>
       <c r="J28" s="2">
-        <v>0.92510000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>0.56100000000000005</v>
+        <v>0.90549999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>5.55</v>
+        <v>1</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4857920</v>
       </c>
       <c r="D29" s="2">
-        <v>0.874</v>
+        <v>0.98400002717971802</v>
       </c>
       <c r="E29" s="2">
-        <v>0.79220000000000002</v>
+        <v>0.92110002040863004</v>
       </c>
       <c r="F29" s="2">
-        <v>0.58309999999999995</v>
+        <v>0.88669997453689497</v>
       </c>
       <c r="G29" s="2">
-        <v>0.747</v>
+        <v>0.93027166666666605</v>
       </c>
       <c r="H29" s="2">
-        <v>0.75980000000000003</v>
+        <v>0.93259999999999998</v>
       </c>
       <c r="I29" s="2">
-        <v>0.752</v>
+        <v>0.93124523809523796</v>
       </c>
       <c r="J29" s="2">
-        <v>0.91759999999999997</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="K29" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.88170000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30">
-        <v>5.55</v>
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5229632</v>
       </c>
       <c r="D30" s="2">
-        <v>0.86029999999999995</v>
+        <v>0.98790001869201605</v>
       </c>
       <c r="E30" s="2">
-        <v>0.77480000000000004</v>
+        <v>0.94279998540878296</v>
       </c>
       <c r="F30" s="2">
-        <v>0.57010000000000005</v>
+        <v>0.91219997406005804</v>
       </c>
       <c r="G30" s="2">
-        <v>0.73340000000000005</v>
+        <v>0.94735333333333305</v>
       </c>
       <c r="H30" s="2">
-        <v>0.74729999999999996</v>
+        <v>0.94893333333333296</v>
       </c>
       <c r="I30" s="2">
-        <v>0.73880000000000001</v>
+        <v>0.94800833333333301</v>
       </c>
       <c r="J30" s="2">
-        <v>0.90900000000000003</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="K30" s="2">
-        <v>0.55789999999999995</v>
+        <v>0.90949999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>5.55</v>
+        <v>1</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="7">
+        <v>5229632</v>
       </c>
       <c r="D31" s="2">
-        <v>0.86780000000000002</v>
+        <v>0.98710000514984098</v>
       </c>
       <c r="E31" s="2">
-        <v>0.78879999999999995</v>
+        <v>0.94010001420974698</v>
       </c>
       <c r="F31" s="2">
-        <v>0.56859999999999999</v>
+        <v>0.90969997644424405</v>
       </c>
       <c r="G31" s="2">
-        <v>0.73970000000000002</v>
+        <v>0.94533833333333295</v>
       </c>
       <c r="H31" s="2">
-        <v>0.754</v>
+        <v>0.94730000000000003</v>
       </c>
       <c r="I31" s="2">
-        <v>0.74519999999999997</v>
+        <v>0.946154761904761</v>
       </c>
       <c r="J31" s="2">
-        <v>0.9103</v>
+        <v>0.9899</v>
       </c>
       <c r="K31" s="2">
-        <v>0.55679999999999996</v>
+        <v>0.90580000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.98820000886917103</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.93959999084472601</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.91259998083114602</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.946481666666666</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.94816666666666605</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.94719166666666599</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.90900000000000003</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7">
-        <v>6104384</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.861500024795532</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.774500012397766</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.61180001497268599</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0.74747999999999903</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0.75331111111111104</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0.59519999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.98729997873306197</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.94150000810623102</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.94649499999999998</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.94725357142857103</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.9093</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3843,69 +3719,69 @@
         <v>23</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="7">
-        <v>6104384</v>
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>8.52</v>
       </c>
       <c r="D35" s="2">
-        <v>0.85360002517700195</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="E35" s="2">
-        <v>0.76630002260208097</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="F35" s="2">
-        <v>0.60070002079009999</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="G35" s="2">
-        <v>0.73819666666666595</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="H35" s="2">
-        <v>0.75376666666666603</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="I35" s="2">
-        <v>0.74424444444444404</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="J35" s="2">
-        <v>0.89859999999999995</v>
+        <v>0.90369999999999995</v>
       </c>
       <c r="K35" s="2">
-        <v>0.58509999999999995</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="7">
-        <v>7845184</v>
+      <c r="B36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
+        <v>8.52</v>
       </c>
       <c r="D36" s="2">
-        <v>0.86930000782012895</v>
+        <v>0.86029999999999995</v>
       </c>
       <c r="E36" s="2">
-        <v>0.79309999942779497</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>0.66380000114440896</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="G36" s="2">
-        <v>0.77425166666666601</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="H36" s="2">
-        <v>0.79196666666666604</v>
+        <v>0.77869999999999995</v>
       </c>
       <c r="I36" s="2">
-        <v>0.78118968253968202</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="J36" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="K36" s="2">
-        <v>0.63800000000000001</v>
+        <v>0.62529999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3913,34 +3789,34 @@
         <v>23</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="7">
-        <v>7845184</v>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>8.3699999999999992</v>
       </c>
       <c r="D37" s="2">
-        <v>0.86809998750686601</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="E37" s="2">
-        <v>0.78729999065399103</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="F37" s="2">
-        <v>0.66229999065399103</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="G37" s="2">
-        <v>0.77838166666666597</v>
+        <v>0.77</v>
       </c>
       <c r="H37" s="2">
-        <v>0.79559999999999897</v>
+        <v>0.7873</v>
       </c>
       <c r="I37" s="2">
-        <v>0.78515198412698395</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="J37" s="2">
-        <v>0.89780000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="K37" s="2">
-        <v>0.64410000000000001</v>
+        <v>0.64039999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3948,34 +3824,34 @@
         <v>23</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="7">
-        <v>11676992</v>
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>5.22</v>
       </c>
       <c r="D38" s="2">
-        <v>0.86949998140335005</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="E38" s="2">
-        <v>0.78759998083114602</v>
+        <v>0.7873</v>
       </c>
       <c r="F38" s="2">
-        <v>0.66060000658035201</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>0.77074500000000001</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="H38" s="2">
-        <v>0.78986666666666605</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="I38" s="2">
-        <v>0.77824126984126896</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="J38" s="2">
-        <v>0.88849999999999996</v>
+        <v>0.90639999999999998</v>
       </c>
       <c r="K38" s="2">
-        <v>0.63329999999999997</v>
+        <v>0.60440000000000005</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3983,38 +3859,788 @@
         <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.77980000000000005</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.62390000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>5.22</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.77780000000000005</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.73119999999999996</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.9264</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.5393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>5.55</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.7833</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>5.55</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.874</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>5.55</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>5.55</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.861500024795532</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.774500012397766</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.61180001497268599</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.74747999999999903</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.75331111111111104</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.59519999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.85360002517700195</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.76630002260208097</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.60070002079009999</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.73819666666666595</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.75376666666666603</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.74424444444444404</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.77838166666666597</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.79559999999999897</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.78515198412698395</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.86949998140335005</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.78759998083114602</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.66060000658035201</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.77074500000000001</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.78986666666666605</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.77824126984126896</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C52" s="7">
         <v>11676992</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D52" s="2">
         <v>0.872699975967407</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E52" s="2">
         <v>0.79060000181198098</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F52" s="2">
         <v>0.66610002517700195</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G52" s="2">
         <v>0.773963333333333</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H52" s="2">
         <v>0.79303333333333303</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I52" s="2">
         <v>0.781436111111111</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J52" s="2">
         <v>0.88849999999999996</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K52" s="2">
         <v>0.63929999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.41491198539733798</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.21953745186328799</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.154297545552253</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.24733057185594201</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.31469336094810701</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.27271917857005801</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.28063513979979199</v>
+      </c>
+      <c r="K55" s="2">
+        <v>8.9402830514325099E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.41525715589523299</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.22920262813568101</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.152226448059082</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.24887239673225101</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.31538373029570799</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.273847877662168</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.28339661719019599</v>
+      </c>
+      <c r="K56" s="2">
+        <v>9.2854677252330001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.38453572988510099</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.20711080729961301</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.12530203163623799</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.22466344494304399</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.29030031066620599</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.249091835560596</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.25647221263375902</v>
+      </c>
+      <c r="K57" s="2">
+        <v>7.66309975837072E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.481532633304595</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.30479806661605802</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.21159820258617401</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.31603382809803199</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.38557128063513901</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.34238484255743401</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.347600966517086</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.14152571625819799</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.49291220307350098</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.18701815605163499</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.135041028261184</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.25540910221337898</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.33267014838763098</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.284578384118299</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.26908729171847801</v>
+      </c>
+      <c r="K60" s="2">
+        <v>7.4359612036806702E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.48843571543693498</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.19373290240764601</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.15244963765144301</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0.26455690955815298</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.34593384730166599</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0.29527520201481899</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.25814474011439897</v>
+      </c>
+      <c r="K61" s="2">
+        <v>8.5053469286247199E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.53344941139221103</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.195225074887275</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.14051231741905201</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0.267255243305976</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.34692862472021802</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0.29728054696967898</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0.29146978363591097</v>
+      </c>
+      <c r="K62" s="2">
+        <v>8.1323053966674899E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.475006222724914</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.16388958692550601</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.117383733391761</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0.23561303158418301</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.31401807178976998</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.26498087421986899</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.25764735140512302</v>
+      </c>
+      <c r="K63" s="2">
+        <v>6.1924894304899197E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <conditionalFormatting sqref="F35:F52">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F33">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:J52">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:K52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25987FB8-12AA-4ABA-B3D6-87D92F0EC460}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48962BD8-DB9A-4F6E-AFF7-68A89FEDA7B3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Result_Summary" sheetId="4" r:id="rId2"/>
-    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId3"/>
-    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId4"/>
+    <sheet name="Result_MarkDown" sheetId="5" r:id="rId3"/>
+    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId4"/>
+    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="96">
   <si>
     <t>Dataset</t>
   </si>
@@ -344,6 +345,12 @@
   </si>
   <si>
     <t>Fashion MNIST</t>
+  </si>
+  <si>
+    <t>Mod-0.1</t>
+  </si>
+  <si>
+    <t>Mod-0.2</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E26FB0C-CD72-44F6-B86B-578CAEA29634}">
   <dimension ref="A2:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4647,6 +4654,1600 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10D08A9-7F54-40DF-973B-3D6F239BD9D5}">
+  <dimension ref="A2:T48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:K48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4908992</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.94319146871566695</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
+        <v>0.89281916618347101</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.91801418439716298</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.92007978723404205</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.91884042553191403</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99154255319148898</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.88888297872340405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4908992</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.94223403930663996</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.89388298988342196</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.91813829787234003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.91984042553191403</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.91881914893617</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.99303191489361697</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.89063829787233995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5153984</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.94265955686569203</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.89324468374252297</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.91801418439716298</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.91880851063829705</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.99207446808510602</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.88925531914893596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5153984</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.94436168670654297</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.89877659082412698</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.92168439716312001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.92319148936170203</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.92228723404255297</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.99404255319148904</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.89569148936170195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.97790002822875899</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.94830000400543202</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.97509833333333296</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.97543333333333304</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.97524047619047605</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.99889999628067005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.97780001163482599</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.94919997453689497</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.97586666666666599</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.97551785714285699</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.94769999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4989120</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.99900001287460305</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.97689998149871804</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.946399986743927</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.97383666666666602</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.97407738095238094</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.94550000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4989120</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.97820001840591397</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.94950002431869496</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.97548999999999997</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.97566428571428498</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.94879999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>5.04</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>5.04</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.90839999999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>4.84</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>4.84</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.9788</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.89790000000000003</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.8528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>4.84</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.9113</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.92320000000000002</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.9254</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4.84</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.87239999999999995</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>4.84</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.87470000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>4.84</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.9274</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.93579999999999997</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.98680001497268599</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.93580001592636097</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.90770000219345004</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.94316666666666604</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.94368095238095195</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.98400002717971802</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.92110002040863004</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.88669997453689497</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.93027166666666605</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.93124523809523796</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.88170000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.98790001869201605</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.91219997406005804</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.94735333333333305</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.94893333333333296</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.94800833333333301</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.98710000514984098</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.94010001420974698</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.90969997644424405</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.94533833333333295</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.946154761904761</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.90580000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.98820000886917103</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.93959999084472601</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.91259998083114602</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.946481666666666</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.94816666666666605</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.94719166666666599</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="7">
+        <v>5802304</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.98729997873306197</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.94150000810623102</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.94649499999999998</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.94725357142857103</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.9093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>8.52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.79139999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>5.55</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.7833</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>5.55</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.874</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.747</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>5.55</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>5.55</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.861500024795532</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.774500012397766</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.61180001497268599</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.74747999999999903</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.75331111111111104</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.59519999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.85360002517700195</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.76630002260208097</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.60070002079009999</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.73819666666666595</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.75376666666666603</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.74424444444444404</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.77838166666666597</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.79559999999999897</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.78515198412698395</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.86949998140335005</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.78759998083114602</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.66060000658035201</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.77074500000000001</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.78986666666666605</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.77824126984126896</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.63329999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7">
+        <v>11676992</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.872699975967407</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.79060000181198098</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.66610002517700195</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.773963333333333</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.79303333333333303</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.781436111111111</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.63929999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.41491198539733798</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.21953745186328799</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.154297545552253</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.24733057185594201</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.31469336094810701</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.27271917857005801</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.28063513979979199</v>
+      </c>
+      <c r="K40" s="2">
+        <v>8.9402830514325099E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.41525715589523299</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.22920262813568101</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.152226448059082</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.24887239673225101</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.31538373029570799</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.273847877662168</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.28339661719019599</v>
+      </c>
+      <c r="K41" s="2">
+        <v>9.2854677252330001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.38453572988510099</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.20711080729961301</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.12530203163623799</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.22466344494304399</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.29030031066620599</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.249091835560596</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.25647221263375902</v>
+      </c>
+      <c r="K42" s="2">
+        <v>7.66309975837072E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.481532633304595</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.30479806661605802</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.21159820258617401</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.31603382809803199</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.38557128063513901</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.34238484255743401</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.347600966517086</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.14152571625819799</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.49291220307350098</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.18701815605163499</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.135041028261184</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.25540910221337898</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.33267014838763098</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.284578384118299</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.26908729171847801</v>
+      </c>
+      <c r="K45" s="2">
+        <v>7.4359612036806702E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.48843571543693498</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.19373290240764601</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.15244963765144301</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.26455690955815298</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.34593384730166599</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.29527520201481899</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.25814474011439897</v>
+      </c>
+      <c r="K46" s="2">
+        <v>8.5053469286247199E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.53344941139221103</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.195225074887275</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.14051231741905201</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.267255243305976</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.34692862472021802</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.29728054696967898</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.29146978363591097</v>
+      </c>
+      <c r="K47" s="2">
+        <v>8.1323053966674899E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.475006222724914</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.16388958692550601</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.117383733391761</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.23561303158418301</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.31401807178976998</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.26498087421986899</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.25764735140512302</v>
+      </c>
+      <c r="K48" s="2">
+        <v>6.1924894304899197E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J35:J38">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35:K38">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:F38">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F26">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2853-D516-48B7-9C6C-D2BAE28B57DC}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -5446,7 +7047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E36-B427-41AC-A8E9-32AE9C4E0B55}">
   <dimension ref="A1:Q13"/>
   <sheetViews>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/knoor_deakin_edu_au/Documents/Deep Learning with Python/Google_Drive/Projects/Deep Learning/HD-CapsNet/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48962BD8-DB9A-4F6E-AFF7-68A89FEDA7B3}"/>
+  <xr:revisionPtr revIDLastSave="616" documentId="13_ncr:40009_{94317FCF-2B78-4027-9398-BA13ECD0880C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7878E1E6-E359-4101-A635-E58EE67BB71B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="Result_Summary" sheetId="4" r:id="rId2"/>
     <sheet name="Result_MarkDown" sheetId="5" r:id="rId3"/>
-    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId4"/>
-    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId5"/>
+    <sheet name="Results_HD_CapsNet" sheetId="6" r:id="rId4"/>
+    <sheet name="Analysis CIFAR_10" sheetId="2" r:id="rId5"/>
+    <sheet name="Analysis CIFAR_100" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="97">
   <si>
     <t>Dataset</t>
   </si>
@@ -351,6 +352,9 @@
   </si>
   <si>
     <t>Mod-0.2</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -858,7 +862,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,6 +888,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4657,11 +4664,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10D08A9-7F54-40DF-973B-3D6F239BD9D5}">
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:K48"/>
+      <selection pane="bottomRight" activeCell="A42" sqref="A42:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5991,28 +5998,28 @@
         <v>106014016</v>
       </c>
       <c r="D42" s="2">
-        <v>0.38453572988510099</v>
+        <v>0.40421125292777998</v>
       </c>
       <c r="E42" s="2">
-        <v>0.20711080729961301</v>
+        <v>0.21608561277389499</v>
       </c>
       <c r="F42" s="2">
-        <v>0.12530203163623799</v>
+        <v>0.13393165171146301</v>
       </c>
       <c r="G42" s="2">
-        <v>0.22466344494304399</v>
+        <v>0.23469105971694801</v>
       </c>
       <c r="H42" s="2">
-        <v>0.29030031066620599</v>
+        <v>0.303302266712691</v>
       </c>
       <c r="I42" s="2">
-        <v>0.249091835560596</v>
+        <v>0.260100761050018</v>
       </c>
       <c r="J42" s="2">
-        <v>0.25647221263375902</v>
+        <v>0.27338626164998198</v>
       </c>
       <c r="K42" s="2">
-        <v>7.66309975837072E-2</v>
+        <v>8.6296168450120794E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -6026,28 +6033,28 @@
         <v>106014016</v>
       </c>
       <c r="D43" s="2">
-        <v>0.481532633304595</v>
+        <v>0.36589574813842701</v>
       </c>
       <c r="E43" s="2">
-        <v>0.30479806661605802</v>
+        <v>0.17777010798454199</v>
       </c>
       <c r="F43" s="2">
-        <v>0.21159820258617401</v>
+        <v>0.108733169734478</v>
       </c>
       <c r="G43" s="2">
-        <v>0.31603382809803199</v>
+        <v>0.20288229202623401</v>
       </c>
       <c r="H43" s="2">
-        <v>0.38557128063513901</v>
+        <v>0.265562075710505</v>
       </c>
       <c r="I43" s="2">
-        <v>0.34238484255743401</v>
+        <v>0.22620691355589501</v>
       </c>
       <c r="J43" s="2">
-        <v>0.347600966517086</v>
+        <v>0.24093890231273701</v>
       </c>
       <c r="K43" s="2">
-        <v>0.14152571625819799</v>
+        <v>6.2823610631687898E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -6248,6 +6255,557 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A22D4B-3433-4058-8F62-A7373E87BE86}">
+  <dimension ref="A2:T19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4908992</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.94319146871566695</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.89281916618347101</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.91801418439716298</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.92007978723404205</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.91884042553191403</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.99154255319148898</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.88888297872340405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4908992</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.94223403930663996</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.89388298988342196</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.91813829787234003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.91984042553191403</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.91881914893617</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.99303191489361697</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.89063829787233995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.97790002822875899</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.94830000400543202</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.97509833333333296</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.97543333333333304</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.97524047619047605</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.99889999628067005</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.97780001163482599</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.94919997453689497</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.97586666666666599</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.97551785714285699</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.997</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.94769999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.98790001869201605</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.91219997406005804</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.94735333333333305</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.94893333333333296</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.94800833333333301</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.98710000514984098</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.94010001420974698</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.90969997644424405</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.94533833333333295</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.94730000000000003</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.946154761904761</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.9899</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.90580000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.77838166666666597</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.79559999999999897</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.78515198412698395</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.89780000000000004</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.64410000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.40421125292777998</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.21608561277389499</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.13393165171146301</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.23469105971694801</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.303302266712691</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.260100761050018</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.27338626164998198</v>
+      </c>
+      <c r="K15" s="2">
+        <v>8.6296168450120794E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.36589574813842701</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.17777010798454199</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.108733169734478</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.20288229202623401</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.265562075710505</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.22620691355589501</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.24093890231273701</v>
+      </c>
+      <c r="K16" s="2">
+        <v>6.2823610631687898E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.53344941139221103</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.195225074887275</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.14051231741905201</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.267255243305976</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.34692862472021802</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.29728054696967898</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.29146978363591097</v>
+      </c>
+      <c r="K18" s="2">
+        <v>8.1323053966674899E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.475006222724914</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.16388958692550601</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.117383733391761</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.23561303158418301</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.31401807178976998</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.26498087421986899</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.25764735140512302</v>
+      </c>
+      <c r="K19" s="2">
+        <v>6.1924894304899197E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2E2853-D516-48B7-9C6C-D2BAE28B57DC}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7047,7 +7605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F9E36-B427-41AC-A8E9-32AE9C4E0B55}">
   <dimension ref="A1:Q13"/>
   <sheetViews>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Directory\Projects\Deep Learning\HD-CapsNet\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA066C2-7A60-4C4B-A8AF-CEB7C44DC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00384B-3A0A-44CB-B4D2-1CF8CB81F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_Summary" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="107">
   <si>
     <t>Dataset</t>
   </si>
@@ -358,6 +358,33 @@
   </si>
   <si>
     <t>Marine Tree</t>
+  </si>
+  <si>
+    <t>Mod-2.9</t>
+  </si>
+  <si>
+    <t>Model Description</t>
+  </si>
+  <si>
+    <t>HD-CapsNet With Consistency Loss (Lc)</t>
+  </si>
+  <si>
+    <t>HD-CapsNet Without Consistency Loss (Lc)</t>
+  </si>
+  <si>
+    <t>HD-CapsNet Without Skip Connection</t>
+  </si>
+  <si>
+    <t>Mod-3.2 T1</t>
+  </si>
+  <si>
+    <t>Mod-3.2 T2</t>
+  </si>
+  <si>
+    <t>Training once</t>
+  </si>
+  <si>
+    <t>Training again with loaded weights</t>
   </si>
 </sst>
 </file>
@@ -865,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -893,8 +920,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1251,2031 +1313,2273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E26FB0C-CD72-44F6-B86B-578CAEA29634}">
-  <dimension ref="A2:T68"/>
+  <dimension ref="A2:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
-    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="20.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="10"/>
+    <col min="14" max="14" width="9.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4908992</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.94319146871566695</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>0.89281916618347101</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.91801418439716298</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.92007978723404205</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.91884042553191403</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.99154255319148898</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0.88888297872340405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="7">
+        <v>71</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="7">
         <v>4908992</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.94223403930663996</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>0.89388298988342196</v>
-      </c>
+      <c r="E5" s="2">
+        <v>0.94319146871566695</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>0.91813829787234003</v>
+        <v>0.89281916618347101</v>
       </c>
       <c r="H5" s="2">
-        <v>0.91984042553191403</v>
+        <v>0.91801418439716298</v>
       </c>
       <c r="I5" s="2">
-        <v>0.91881914893617</v>
+        <v>0.92007978723404205</v>
       </c>
       <c r="J5" s="2">
-        <v>0.99303191489361697</v>
+        <v>0.91884042553191403</v>
       </c>
       <c r="K5" s="2">
-        <v>0.89063829787233995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.99154255319148898</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.88888297872340405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5153984</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.94265955686569203</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>0.89324468374252297</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="7">
+        <v>4908992</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.94223403930663996</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>0.91801418439716298</v>
+        <v>0.89388298988342196</v>
       </c>
       <c r="H6" s="2">
-        <v>0.92</v>
+        <v>0.91813829787234003</v>
       </c>
       <c r="I6" s="2">
-        <v>0.91880851063829705</v>
+        <v>0.91984042553191403</v>
       </c>
       <c r="J6" s="2">
-        <v>0.99207446808510602</v>
+        <v>0.91881914893617</v>
       </c>
       <c r="K6" s="2">
-        <v>0.88925531914893596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.99303191489361697</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.89063829787233995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="7">
+        <v>5153984</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.94265955686569203</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>0.89324468374252297</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.91801418439716298</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.91880851063829705</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.99207446808510602</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.88925531914893596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="21"/>
+      <c r="D8" s="7">
         <v>5153984</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>0.94436168670654297</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
         <v>0.89877659082412698</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="2">
         <v>0.92168439716312001</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I8" s="2">
         <v>0.92319148936170203</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J8" s="2">
         <v>0.92228723404255297</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K8" s="2">
         <v>0.99404255319148904</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L8" s="2">
         <v>0.89569148936170195</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4824768</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.99919998645782404</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.97790002822875899</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.94830000400543202</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.97509833333333296</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.97543333333333304</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.97524047619047605</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.94740000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="7">
+        <v>4734656</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.99910002946853604</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.97630000114440896</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.94660001993179299</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.97395166666666599</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.97405595238095199</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="7">
+        <v>4824768</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.99919998645782404</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.97790002822875899</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.94830000400543202</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.97509833333333296</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.97543333333333304</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.97524047619047605</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.94740000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C13" s="23"/>
+      <c r="D13" s="7">
         <v>4824768</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E13" s="2">
         <v>0.99889999628067005</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F13" s="2">
         <v>0.97780001163482599</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G13" s="2">
         <v>0.94919997453689497</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H13" s="2">
         <v>0.97526000000000002</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I13" s="2">
         <v>0.97586666666666599</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J13" s="2">
         <v>0.97551785714285699</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K13" s="2">
         <v>0.997</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L13" s="2">
         <v>0.94769999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C14" s="21"/>
+      <c r="D14" s="7">
         <v>4989120</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E14" s="2">
         <v>0.99900001287460305</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F14" s="2">
         <v>0.97689998149871804</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G14" s="2">
         <v>0.946399986743927</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H14" s="2">
         <v>0.97383666666666602</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I14" s="2">
         <v>0.97440000000000004</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J14" s="2">
         <v>0.97407738095238094</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K14" s="2">
         <v>0.99690000000000001</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L14" s="2">
         <v>0.94550000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C15" s="21"/>
+      <c r="D15" s="7">
         <v>4989120</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E15" s="2">
         <v>0.99919998645782404</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F15" s="2">
         <v>0.97820001840591397</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G15" s="2">
         <v>0.94950002431869496</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H15" s="2">
         <v>0.97548999999999997</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I15" s="2">
         <v>0.97589999999999999</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J15" s="2">
         <v>0.97566428571428498</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K15" s="2">
         <v>0.99780000000000002</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L15" s="2">
         <v>0.94879999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5.04</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.98809999999999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.90990000000000004</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.94630000000000003</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.99080000000000001</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.90749999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17">
-        <v>5.04</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.98719999999999997</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.93810000000000004</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.90839999999999999</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.99060000000000004</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.90559999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>5.03</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.98709999999999998</v>
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5.04</v>
       </c>
       <c r="E18" s="2">
-        <v>0.93959999999999999</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="F18" s="2">
-        <v>0.91159999999999997</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="G18" s="2">
-        <v>0.9456</v>
+        <v>0.90990000000000004</v>
       </c>
       <c r="H18" s="2">
-        <v>0.94720000000000004</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="I18" s="2">
-        <v>0.94620000000000004</v>
+        <v>0.94630000000000003</v>
       </c>
       <c r="J18" s="2">
-        <v>0.99129999999999996</v>
+        <v>0.94530000000000003</v>
       </c>
       <c r="K18" s="2">
-        <v>0.90890000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.90749999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>4.74</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.98240000000000005</v>
+        <v>82</v>
+      </c>
+      <c r="D19">
+        <v>5.04</v>
       </c>
       <c r="E19" s="2">
-        <v>0.91830000000000001</v>
+        <v>0.98719999999999997</v>
       </c>
       <c r="F19" s="2">
-        <v>0.87890000000000001</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="G19" s="2">
-        <v>0.92569999999999997</v>
+        <v>0.90839999999999999</v>
       </c>
       <c r="H19" s="2">
-        <v>0.92859999999999998</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="I19" s="2">
-        <v>0.92689999999999995</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="J19" s="2">
-        <v>0.98460000000000003</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="K19" s="2">
-        <v>0.87419999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99060000000000004</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>5.03</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.98809999999999998</v>
-      </c>
       <c r="E20" s="2">
-        <v>0.93859999999999999</v>
+        <v>0.98709999999999998</v>
       </c>
       <c r="F20" s="2">
-        <v>0.9103</v>
+        <v>0.93959999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>0.94550000000000001</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="H20" s="2">
-        <v>0.9466</v>
+        <v>0.9456</v>
       </c>
       <c r="I20" s="2">
-        <v>0.94589999999999996</v>
+        <v>0.94720000000000004</v>
       </c>
       <c r="J20" s="2">
-        <v>0.99380000000000002</v>
+        <v>0.94620000000000004</v>
       </c>
       <c r="K20" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.90890000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
         <v>4.74</v>
       </c>
-      <c r="D21" s="2">
-        <v>0.98619999999999997</v>
-      </c>
       <c r="E21" s="2">
-        <v>0.93010000000000004</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="F21" s="2">
-        <v>0.89670000000000005</v>
+        <v>0.91830000000000001</v>
       </c>
       <c r="G21" s="2">
-        <v>0.93730000000000002</v>
+        <v>0.87890000000000001</v>
       </c>
       <c r="H21" s="2">
-        <v>0.93940000000000001</v>
+        <v>0.92569999999999997</v>
       </c>
       <c r="I21" s="2">
-        <v>0.93820000000000003</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="J21" s="2">
-        <v>0.98950000000000005</v>
+        <v>0.92689999999999995</v>
       </c>
       <c r="K21" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>4.84</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.98760000000000003</v>
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>5.03</v>
       </c>
       <c r="E22" s="2">
-        <v>0.93359999999999999</v>
+        <v>0.98809999999999998</v>
       </c>
       <c r="F22" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="G22" s="2">
-        <v>0.94089999999999996</v>
+        <v>0.9103</v>
       </c>
       <c r="H22" s="2">
-        <v>0.94299999999999995</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="I22" s="2">
-        <v>0.94179999999999997</v>
+        <v>0.9466</v>
       </c>
       <c r="J22" s="2">
-        <v>0.98939999999999995</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="K22" s="2">
-        <v>0.89849999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>4.84</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.9788</v>
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4.74</v>
       </c>
       <c r="E23" s="2">
-        <v>0.89790000000000003</v>
+        <v>0.98619999999999997</v>
       </c>
       <c r="F23" s="2">
-        <v>0.85829999999999995</v>
+        <v>0.93010000000000004</v>
       </c>
       <c r="G23" s="2">
-        <v>0.91120000000000001</v>
+        <v>0.89670000000000005</v>
       </c>
       <c r="H23" s="2">
-        <v>0.91410000000000002</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="I23" s="2">
-        <v>0.91239999999999999</v>
+        <v>0.93940000000000001</v>
       </c>
       <c r="J23" s="2">
-        <v>0.98440000000000005</v>
+        <v>0.93820000000000003</v>
       </c>
       <c r="K23" s="2">
-        <v>0.8528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
         <v>4.84</v>
       </c>
-      <c r="D24" s="2">
-        <v>0.98329999999999995</v>
-      </c>
       <c r="E24" s="2">
-        <v>0.9113</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="F24" s="2">
-        <v>0.87649999999999995</v>
+        <v>0.93359999999999999</v>
       </c>
       <c r="G24" s="2">
-        <v>0.92320000000000002</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="H24" s="2">
-        <v>0.9254</v>
+        <v>0.94089999999999996</v>
       </c>
       <c r="I24" s="2">
-        <v>0.92410000000000003</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="J24" s="2">
-        <v>0.98750000000000004</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="K24" s="2">
-        <v>0.87250000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.89849999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
         <v>4.84</v>
       </c>
-      <c r="D25" s="2">
-        <v>0.98240000000000005</v>
-      </c>
       <c r="E25" s="2">
-        <v>0.90959999999999996</v>
+        <v>0.9788</v>
       </c>
       <c r="F25" s="2">
-        <v>0.87239999999999995</v>
+        <v>0.89790000000000003</v>
       </c>
       <c r="G25" s="2">
-        <v>0.92090000000000005</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="H25" s="2">
-        <v>0.92349999999999999</v>
+        <v>0.91120000000000001</v>
       </c>
       <c r="I25" s="2">
-        <v>0.92200000000000004</v>
+        <v>0.91410000000000002</v>
       </c>
       <c r="J25" s="2">
-        <v>0.98619999999999997</v>
+        <v>0.91239999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.8528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
         <v>4.84</v>
       </c>
-      <c r="D26" s="2">
-        <v>0.98409999999999997</v>
-      </c>
       <c r="E26" s="2">
-        <v>0.91420000000000001</v>
+        <v>0.98329999999999995</v>
       </c>
       <c r="F26" s="2">
-        <v>0.87960000000000005</v>
+        <v>0.9113</v>
       </c>
       <c r="G26" s="2">
-        <v>0.92549999999999999</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="H26" s="2">
-        <v>0.92800000000000005</v>
+        <v>0.92320000000000002</v>
       </c>
       <c r="I26" s="2">
-        <v>0.92659999999999998</v>
+        <v>0.9254</v>
       </c>
       <c r="J26" s="2">
-        <v>0.98650000000000004</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="K26" s="2">
-        <v>0.87470000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0.87250000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
         <v>4.84</v>
       </c>
-      <c r="D27" s="2">
-        <v>0.98670000000000002</v>
-      </c>
       <c r="E27" s="2">
-        <v>0.9274</v>
+        <v>0.98240000000000005</v>
       </c>
       <c r="F27" s="2">
-        <v>0.89449999999999996</v>
+        <v>0.90959999999999996</v>
       </c>
       <c r="G27" s="2">
-        <v>0.93579999999999997</v>
+        <v>0.87239999999999995</v>
       </c>
       <c r="H27" s="2">
-        <v>0.93740000000000001</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="I27" s="2">
-        <v>0.93640000000000001</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="J27" s="2">
-        <v>0.99099999999999999</v>
+        <v>0.92200000000000004</v>
       </c>
       <c r="K27" s="2">
-        <v>0.89159999999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98619999999999997</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.86750000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="7">
-        <v>4857920</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.98680001497268599</v>
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>4.84</v>
       </c>
       <c r="E28" s="2">
-        <v>0.93580001592636097</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="F28" s="2">
-        <v>0.90770000219345004</v>
+        <v>0.91420000000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>0.94316666666666604</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="H28" s="2">
-        <v>0.94440000000000002</v>
+        <v>0.92549999999999999</v>
       </c>
       <c r="I28" s="2">
-        <v>0.94368095238095195</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="J28" s="2">
-        <v>0.99299999999999999</v>
+        <v>0.92659999999999998</v>
       </c>
       <c r="K28" s="2">
-        <v>0.90549999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98650000000000004</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.87470000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="7">
-        <v>4857920</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.98400002717971802</v>
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>4.84</v>
       </c>
       <c r="E29" s="2">
-        <v>0.92110002040863004</v>
+        <v>0.98670000000000002</v>
       </c>
       <c r="F29" s="2">
-        <v>0.88669997453689497</v>
+        <v>0.9274</v>
       </c>
       <c r="G29" s="2">
-        <v>0.93027166666666605</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H29" s="2">
-        <v>0.93259999999999998</v>
+        <v>0.93579999999999997</v>
       </c>
       <c r="I29" s="2">
-        <v>0.93124523809523796</v>
+        <v>0.93740000000000001</v>
       </c>
       <c r="J29" s="2">
-        <v>0.98839999999999995</v>
+        <v>0.93640000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>0.88170000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="7">
-        <v>5229632</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.98790001869201605</v>
+        <v>69</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4857920</v>
       </c>
       <c r="E30" s="2">
-        <v>0.94279998540878296</v>
+        <v>0.98680001497268599</v>
       </c>
       <c r="F30" s="2">
-        <v>0.91219997406005804</v>
+        <v>0.93580001592636097</v>
       </c>
       <c r="G30" s="2">
-        <v>0.94735333333333305</v>
+        <v>0.90770000219345004</v>
       </c>
       <c r="H30" s="2">
-        <v>0.94893333333333296</v>
+        <v>0.94316666666666604</v>
       </c>
       <c r="I30" s="2">
-        <v>0.94800833333333301</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="J30" s="2">
-        <v>0.99180000000000001</v>
+        <v>0.94368095238095195</v>
       </c>
       <c r="K30" s="2">
-        <v>0.90949999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.90549999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4857920</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.98400002717971802</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.92110002040863004</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.88669997453689497</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.93027166666666605</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.93124523809523796</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.88170000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="7">
+        <v>5229632</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.98790001869201605</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.94279998540878296</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.91219997406005804</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.94735333333333305</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.94893333333333296</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.94800833333333301</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.90949999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="23"/>
+      <c r="D33" s="7">
         <v>5229632</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E33" s="2">
         <v>0.98710000514984098</v>
       </c>
-      <c r="E31" s="2">
+      <c r="F33" s="2">
         <v>0.94010001420974698</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G33" s="2">
         <v>0.90969997644424405</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H33" s="2">
         <v>0.94533833333333295</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I33" s="2">
         <v>0.94730000000000003</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J33" s="2">
         <v>0.946154761904761</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K33" s="2">
         <v>0.9899</v>
       </c>
-      <c r="K31" s="2">
+      <c r="L33" s="2">
         <v>0.90580000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="7">
+      <c r="D34" s="7">
         <v>5802304</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E34" s="2">
         <v>0.98820000886917103</v>
       </c>
-      <c r="E32" s="2">
+      <c r="F34" s="2">
         <v>0.93959999084472601</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G34" s="2">
         <v>0.91259998083114602</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H34" s="2">
         <v>0.946481666666666</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I34" s="2">
         <v>0.94816666666666605</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J34" s="2">
         <v>0.94719166666666599</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K34" s="2">
         <v>0.99109999999999998</v>
       </c>
-      <c r="K32" s="2">
+      <c r="L34" s="2">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="7">
+      <c r="D35" s="7">
         <v>5802304</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E35" s="2">
         <v>0.98729997873306197</v>
       </c>
-      <c r="E33" s="2">
+      <c r="F35" s="2">
         <v>0.94150000810623102</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G35" s="2">
         <v>0.91240000724792403</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H35" s="2">
         <v>0.94649499999999998</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I35" s="2">
         <v>0.94830000000000003</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J35" s="2">
         <v>0.94725357142857103</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K35" s="2">
         <v>0.98980000000000001</v>
       </c>
-      <c r="K33" s="2">
+      <c r="L35" s="2">
         <v>0.9093</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>8.52</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.86850000000000005</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0.79139999999999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.77070000000000005</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.78820000000000001</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.90369999999999995</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0.64080000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36">
-        <v>8.52</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0.77829999999999999</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.64870000000000005</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0.76039999999999996</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.77869999999999995</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0.76749999999999996</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.62529999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>8.3699999999999992</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.86750000000000005</v>
+        <v>3</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37">
+        <v>8.52</v>
       </c>
       <c r="E37" s="2">
-        <v>0.78949999999999998</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="F37" s="2">
-        <v>0.66169999999999995</v>
+        <v>0.79139999999999999</v>
       </c>
       <c r="G37" s="2">
-        <v>0.77</v>
+        <v>0.66180000000000005</v>
       </c>
       <c r="H37" s="2">
-        <v>0.7873</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="I37" s="2">
-        <v>0.77680000000000005</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="J37" s="2">
-        <v>0.9</v>
+        <v>0.77749999999999997</v>
       </c>
       <c r="K37" s="2">
-        <v>0.64039999999999997</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>5.22</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.86929999999999996</v>
+      <c r="B38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38">
+        <v>8.52</v>
       </c>
       <c r="E38" s="2">
-        <v>0.7873</v>
+        <v>0.86029999999999995</v>
       </c>
       <c r="F38" s="2">
-        <v>0.61699999999999999</v>
+        <v>0.77829999999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>0.75509999999999999</v>
+        <v>0.64870000000000005</v>
       </c>
       <c r="H38" s="2">
-        <v>0.76970000000000005</v>
+        <v>0.76039999999999996</v>
       </c>
       <c r="I38" s="2">
-        <v>0.76070000000000004</v>
+        <v>0.77869999999999995</v>
       </c>
       <c r="J38" s="2">
-        <v>0.90639999999999998</v>
+        <v>0.76749999999999996</v>
       </c>
       <c r="K38" s="2">
-        <v>0.60440000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.62529999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39">
         <v>8.3699999999999992</v>
       </c>
-      <c r="D39" s="2">
-        <v>0.86180000000000001</v>
-      </c>
       <c r="E39" s="2">
-        <v>0.78310000000000002</v>
+        <v>0.86750000000000005</v>
       </c>
       <c r="F39" s="2">
-        <v>0.64690000000000003</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="G39" s="2">
-        <v>0.76139999999999997</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="H39" s="2">
-        <v>0.77980000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I39" s="2">
-        <v>0.76859999999999995</v>
+        <v>0.7873</v>
       </c>
       <c r="J39" s="2">
-        <v>0.89829999999999999</v>
+        <v>0.77680000000000005</v>
       </c>
       <c r="K39" s="2">
-        <v>0.62390000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.64039999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40">
         <v>5.22</v>
       </c>
-      <c r="D40" s="2">
-        <v>0.86450000000000005</v>
-      </c>
       <c r="E40" s="2">
-        <v>0.77780000000000005</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="F40" s="2">
-        <v>0.55179999999999996</v>
+        <v>0.7873</v>
       </c>
       <c r="G40" s="2">
-        <v>0.73119999999999996</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="H40" s="2">
-        <v>0.74260000000000004</v>
+        <v>0.75509999999999999</v>
       </c>
       <c r="I40" s="2">
-        <v>0.73570000000000002</v>
+        <v>0.76970000000000005</v>
       </c>
       <c r="J40" s="2">
-        <v>0.9264</v>
+        <v>0.76070000000000004</v>
       </c>
       <c r="K40" s="2">
-        <v>0.5393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.60440000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>5.55</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.86570000000000003</v>
+        <v>7</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41">
+        <v>8.3699999999999992</v>
       </c>
       <c r="E41" s="2">
-        <v>0.7833</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="F41" s="2">
-        <v>0.57079999999999997</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="G41" s="2">
-        <v>0.73860000000000003</v>
+        <v>0.64690000000000003</v>
       </c>
       <c r="H41" s="2">
-        <v>0.75</v>
+        <v>0.76139999999999997</v>
       </c>
       <c r="I41" s="2">
-        <v>0.74309999999999998</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="J41" s="2">
-        <v>0.92510000000000003</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="K41" s="2">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.62390000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>5.55</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.874</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42">
+        <v>5.22</v>
       </c>
       <c r="E42" s="2">
-        <v>0.79220000000000002</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="F42" s="2">
-        <v>0.58309999999999995</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="G42" s="2">
-        <v>0.747</v>
+        <v>0.55179999999999996</v>
       </c>
       <c r="H42" s="2">
-        <v>0.75980000000000003</v>
+        <v>0.73119999999999996</v>
       </c>
       <c r="I42" s="2">
-        <v>0.752</v>
+        <v>0.74260000000000004</v>
       </c>
       <c r="J42" s="2">
-        <v>0.91759999999999997</v>
+        <v>0.73570000000000002</v>
       </c>
       <c r="K42" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9264</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.5393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43">
         <v>5.55</v>
       </c>
-      <c r="D43" s="2">
-        <v>0.86029999999999995</v>
-      </c>
       <c r="E43" s="2">
-        <v>0.77480000000000004</v>
+        <v>0.86570000000000003</v>
       </c>
       <c r="F43" s="2">
-        <v>0.57010000000000005</v>
+        <v>0.7833</v>
       </c>
       <c r="G43" s="2">
-        <v>0.73340000000000005</v>
+        <v>0.57079999999999997</v>
       </c>
       <c r="H43" s="2">
-        <v>0.74729999999999996</v>
+        <v>0.73860000000000003</v>
       </c>
       <c r="I43" s="2">
-        <v>0.73880000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="J43" s="2">
-        <v>0.90900000000000003</v>
+        <v>0.74309999999999998</v>
       </c>
       <c r="K43" s="2">
-        <v>0.55789999999999995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44">
         <v>5.55</v>
       </c>
-      <c r="D44" s="2">
-        <v>0.86780000000000002</v>
-      </c>
       <c r="E44" s="2">
-        <v>0.78879999999999995</v>
+        <v>0.874</v>
       </c>
       <c r="F44" s="2">
-        <v>0.56859999999999999</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="G44" s="2">
-        <v>0.73970000000000002</v>
+        <v>0.58309999999999995</v>
       </c>
       <c r="H44" s="2">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="I44" s="2">
-        <v>0.74519999999999997</v>
+        <v>0.75980000000000003</v>
       </c>
       <c r="J44" s="2">
-        <v>0.9103</v>
+        <v>0.752</v>
       </c>
       <c r="K44" s="2">
-        <v>0.55679999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45">
+        <v>5.55</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.74729999999999996</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.73880000000000001</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.55789999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46">
+        <v>5.55</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.754</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.9103</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.55679999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="7">
-        <v>6104384</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.861500024795532</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.774500012397766</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.61180001497268599</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0.74747999999999903</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.76249999999999996</v>
-      </c>
-      <c r="I47" s="2">
-        <v>0.75331111111111104</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.90680000000000005</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.59519999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="7">
-        <v>6104384</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.85360002517700195</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.76630002260208097</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.60070002079009999</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0.73819666666666595</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.75376666666666603</v>
-      </c>
-      <c r="I48" s="2">
-        <v>0.74424444444444404</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.89859999999999995</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0.58509999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="7">
-        <v>7845184</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.86930000782012895</v>
+        <v>69</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="7">
+        <v>6104384</v>
       </c>
       <c r="E49" s="2">
-        <v>0.79309999942779497</v>
+        <v>0.861500024795532</v>
       </c>
       <c r="F49" s="2">
-        <v>0.66380000114440896</v>
+        <v>0.774500012397766</v>
       </c>
       <c r="G49" s="2">
-        <v>0.77425166666666601</v>
+        <v>0.61180001497268599</v>
       </c>
       <c r="H49" s="2">
-        <v>0.79196666666666604</v>
+        <v>0.74747999999999903</v>
       </c>
       <c r="I49" s="2">
-        <v>0.78118968253968202</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="J49" s="2">
-        <v>0.89800000000000002</v>
+        <v>0.75331111111111104</v>
       </c>
       <c r="K49" s="2">
-        <v>0.63800000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0.59519999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="7">
+        <v>70</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="7">
+        <v>6104384</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.85360002517700195</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.76630002260208097</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.60070002079009999</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.73819666666666595</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.75376666666666603</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0.74424444444444404</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0.58509999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="7">
         <v>7845184</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E51" s="2">
+        <v>0.86930000782012895</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.79309999942779497</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.66380000114440896</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.77425166666666601</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.79196666666666604</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.78118968253968202</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="18">
+        <v>7845184</v>
+      </c>
+      <c r="E52" s="16">
         <v>0.86809998750686601</v>
       </c>
-      <c r="E50" s="2">
+      <c r="F52" s="16">
         <v>0.78729999065399103</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G52" s="16">
         <v>0.66229999065399103</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H52" s="16">
+        <v>0.77096833333333303</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0.77854285714285698</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0.63360000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="7">
+        <v>7845184</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="H53" s="2">
         <v>0.77838166666666597</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I53" s="2">
         <v>0.79559999999999897</v>
       </c>
-      <c r="I50" s="2">
+      <c r="J53" s="2">
         <v>0.78515198412698395</v>
       </c>
-      <c r="J50" s="2">
+      <c r="K53" s="2">
         <v>0.89780000000000004</v>
       </c>
-      <c r="K50" s="2">
+      <c r="L53" s="2">
         <v>0.64410000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C54" s="19"/>
+      <c r="D54" s="7">
         <v>11676992</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E54" s="2">
         <v>0.86949998140335005</v>
       </c>
-      <c r="E51" s="2">
+      <c r="F54" s="2">
         <v>0.78759998083114602</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G54" s="2">
         <v>0.66060000658035201</v>
       </c>
-      <c r="G51" s="2">
+      <c r="H54" s="2">
         <v>0.77074500000000001</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I54" s="2">
         <v>0.78986666666666605</v>
       </c>
-      <c r="I51" s="2">
+      <c r="J54" s="2">
         <v>0.77824126984126896</v>
       </c>
-      <c r="J51" s="2">
+      <c r="K54" s="2">
         <v>0.88849999999999996</v>
       </c>
-      <c r="K51" s="2">
+      <c r="L54" s="2">
         <v>0.63329999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C55" s="19"/>
+      <c r="D55" s="7">
         <v>11676992</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E55" s="2">
         <v>0.872699975967407</v>
       </c>
-      <c r="E52" s="2">
+      <c r="F55" s="2">
         <v>0.79060000181198098</v>
       </c>
-      <c r="F52" s="2">
+      <c r="G55" s="2">
         <v>0.66610002517700195</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H55" s="2">
         <v>0.773963333333333</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I55" s="2">
         <v>0.79303333333333303</v>
       </c>
-      <c r="I52" s="2">
+      <c r="J55" s="2">
         <v>0.781436111111111</v>
       </c>
-      <c r="J52" s="2">
+      <c r="K55" s="2">
         <v>0.88849999999999996</v>
       </c>
-      <c r="K52" s="2">
+      <c r="L55" s="2">
         <v>0.63929999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="7">
-        <v>49746752</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.41491198539733798</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.21953745186328799</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.154297545552253</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0.24733057185594201</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.31469336094810701</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.27271917857005801</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0.28063513979979199</v>
-      </c>
-      <c r="K55" s="2">
-        <v>8.9402830514325099E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="7">
-        <v>49746752</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.41525715589523299</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.22920262813568101</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.152226448059082</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0.24887239673225101</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.31538373029570799</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.273847877662168</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0.28339661719019599</v>
-      </c>
-      <c r="K56" s="2">
-        <v>9.2854677252330001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="7">
-        <v>106014016</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.38453572988510099</v>
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="7">
+        <v>47555904</v>
       </c>
       <c r="E57" s="2">
-        <v>0.20711080729961301</v>
+        <v>0.35657575726509</v>
       </c>
       <c r="F57" s="2">
-        <v>0.12530203163623799</v>
+        <v>0.16983085870742701</v>
       </c>
       <c r="G57" s="2">
-        <v>0.22466344494304399</v>
+        <v>2.14014500379562E-2</v>
       </c>
       <c r="H57" s="2">
-        <v>0.29030031066620599</v>
+        <v>0.149700839949372</v>
       </c>
       <c r="I57" s="2">
-        <v>0.249091835560596</v>
+        <v>0.208606604533425</v>
       </c>
       <c r="J57" s="2">
-        <v>0.25647221263375902</v>
+        <v>0.171325289982521</v>
       </c>
       <c r="K57" s="2">
-        <v>7.66309975837072E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21435968243010001</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1.55333103210217E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.41491198539733798</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.21953745186328799</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.154297545552253</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.24733057185594201</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.31469336094810701</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.27271917857005801</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.28063513979979199</v>
+      </c>
+      <c r="L58" s="2">
+        <v>8.9402830514325099E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="7">
+        <v>49746752</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.41525715589523299</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.22920262813568101</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.152226448059082</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.24887239673225101</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.31538373029570799</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0.273847877662168</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0.28339661719019599</v>
+      </c>
+      <c r="L59" s="2">
+        <v>9.2854677252330001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="7">
+        <v>106014016</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.38453572988510099</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0.20711080729961301</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0.12530203163623799</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.22466344494304399</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0.29030031066620599</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.249091835560596</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0.25647221263375902</v>
+      </c>
+      <c r="L60" s="2">
+        <v>7.66309975837072E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C61" s="24"/>
+      <c r="D61" s="7">
         <v>106014016</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E61" s="2">
         <v>0.481532633304595</v>
       </c>
-      <c r="E58" s="2">
+      <c r="F61" s="2">
         <v>0.30479806661605802</v>
       </c>
-      <c r="F58" s="2">
+      <c r="G61" s="2">
         <v>0.21159820258617401</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H61" s="2">
         <v>0.31603382809803199</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I61" s="2">
         <v>0.38557128063513901</v>
       </c>
-      <c r="I58" s="2">
+      <c r="J61" s="2">
         <v>0.34238484255743401</v>
       </c>
-      <c r="J58" s="2">
+      <c r="K61" s="2">
         <v>0.347600966517086</v>
       </c>
-      <c r="K58" s="2">
+      <c r="L61" s="2">
         <v>0.14152571625819799</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="7">
-        <v>39340352</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.49291220307350098</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.18701815605163499</v>
-      </c>
-      <c r="F60" s="2">
-        <v>0.135041028261184</v>
-      </c>
-      <c r="G60" s="2">
-        <v>0.25540910221337898</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.33267014838763098</v>
-      </c>
-      <c r="I60" s="2">
-        <v>0.284578384118299</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0.26908729171847801</v>
-      </c>
-      <c r="K60" s="2">
-        <v>7.4359612036806702E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="7">
-        <v>39340352</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0.48843571543693498</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.19373290240764601</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.15244963765144301</v>
-      </c>
-      <c r="G61" s="2">
-        <v>0.26455690955815298</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.34593384730166599</v>
-      </c>
-      <c r="I61" s="2">
-        <v>0.29527520201481899</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0.25814474011439897</v>
-      </c>
-      <c r="K61" s="2">
-        <v>8.5053469286247199E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="7">
-        <v>81165632</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.53344941139221103</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.195225074887275</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.14051231741905201</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0.267255243305976</v>
-      </c>
-      <c r="H62" s="2">
-        <v>0.34692862472021802</v>
-      </c>
-      <c r="I62" s="2">
-        <v>0.29728054696967898</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0.29146978363591097</v>
-      </c>
-      <c r="K62" s="2">
-        <v>8.1323053966674899E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="19"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="7">
+        <v>25853248</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.46008455753326399</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0.122855007648468</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.56677439808845E-2</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.171047832214208</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0.24040454281687801</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0.19786399182071901</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0.13603581198706699</v>
+      </c>
+      <c r="L63" s="2">
+        <v>8.7043024123352394E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.49291220307350098</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.18701815605163499</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0.135041028261184</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.25540910221337898</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0.33267014838763098</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.284578384118299</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0.26908729171847801</v>
+      </c>
+      <c r="L64" s="2">
+        <v>7.4359612036806702E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="7">
+        <v>39340352</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.48843571543693498</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.19373290240764601</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.15244963765144301</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.26455690955815298</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0.34593384730166599</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0.29527520201481899</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0.25814474011439897</v>
+      </c>
+      <c r="L65" s="2">
+        <v>8.5053469286247199E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="7">
+        <v>81165632</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.53344941139221103</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.195225074887275</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.14051231741905201</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.267255243305976</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0.34692862472021802</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0.29728054696967898</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0.29146978363591097</v>
+      </c>
+      <c r="L66" s="2">
+        <v>8.1323053966674899E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C67" s="24"/>
+      <c r="D67" s="7">
         <v>81165632</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E67" s="2">
         <v>0.475006222724914</v>
       </c>
-      <c r="E63" s="2">
+      <c r="F67" s="2">
         <v>0.16388958692550601</v>
       </c>
-      <c r="F63" s="2">
+      <c r="G67" s="2">
         <v>0.117383733391761</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H67" s="2">
         <v>0.23561303158418301</v>
       </c>
-      <c r="H63" s="2">
+      <c r="I67" s="2">
         <v>0.31401807178976998</v>
       </c>
-      <c r="I63" s="2">
+      <c r="J67" s="2">
         <v>0.26498087421986899</v>
       </c>
-      <c r="J63" s="2">
+      <c r="K67" s="2">
         <v>0.25764735140512302</v>
       </c>
-      <c r="K63" s="2">
+      <c r="L67" s="2">
         <v>6.1924894304899197E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B69" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="7">
+        <v>5973312</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.86976641416549605</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.77819240093231201</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.55037689208984297</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.73347948851904299</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.75758141154812497</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.74360870924980105</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.86946787073662202</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.49343234569743999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C70" s="19"/>
+      <c r="D70" s="7">
         <v>9077312</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E70" s="2">
         <v>0.89954471588134699</v>
       </c>
-      <c r="E65" s="2">
+      <c r="F70" s="2">
         <v>0.78296887874603205</v>
       </c>
-      <c r="F65" s="2">
+      <c r="G70" s="2">
         <v>0.54571235179901101</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H70" s="2">
         <v>0.74008445903923104</v>
       </c>
-      <c r="H65" s="2">
+      <c r="I70" s="2">
         <v>0.75245665099385495</v>
       </c>
-      <c r="I65" s="2">
+      <c r="J70" s="2">
         <v>0.74507870167993995</v>
       </c>
-      <c r="J65" s="2">
+      <c r="K70" s="2">
         <v>0.93671169490260398</v>
       </c>
-      <c r="K65" s="2">
+      <c r="L70" s="2">
         <v>0.52854690648555802</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C71" s="19"/>
+      <c r="D71" s="7">
         <v>9077312</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E71" s="2">
         <v>0.90585118532180697</v>
       </c>
-      <c r="E66" s="2">
+      <c r="F71" s="2">
         <v>0.798902928829193</v>
       </c>
-      <c r="F66" s="2">
+      <c r="G71" s="2">
         <v>0.57474440336227395</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H71" s="2">
         <v>0.75706893549269805</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I71" s="2">
         <v>0.76921163270890802</v>
       </c>
-      <c r="I66" s="2">
+      <c r="J71" s="2">
         <v>0.76195762654640098</v>
       </c>
-      <c r="J66" s="2">
+      <c r="K71" s="2">
         <v>0.93783118143144995</v>
       </c>
-      <c r="K66" s="2">
+      <c r="L71" s="2">
         <v>0.55903425628778203</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B72" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C72" s="24"/>
+      <c r="D72" s="7">
         <v>13579328</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E72" s="2">
         <v>0.89876109361648504</v>
       </c>
-      <c r="E67" s="2">
+      <c r="F72" s="2">
         <v>0.78599148988723699</v>
       </c>
-      <c r="F67" s="2">
+      <c r="G72" s="2">
         <v>0.57153517007827703</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H72" s="2">
         <v>0.75019466626862596</v>
       </c>
-      <c r="H67" s="2">
+      <c r="I72" s="2">
         <v>0.76044232156628599</v>
       </c>
-      <c r="I67" s="2">
+      <c r="J72" s="2">
         <v>0.75436821866592696</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K72" s="2">
         <v>0.94473468169266295</v>
       </c>
-      <c r="K67" s="2">
+      <c r="L72" s="2">
         <v>0.55593701022464304</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B73" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C73" s="24"/>
+      <c r="D73" s="7">
         <v>13579328</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E73" s="2">
         <v>0.89495486021041804</v>
       </c>
-      <c r="E68" s="2">
+      <c r="F73" s="2">
         <v>0.77572953701019198</v>
       </c>
-      <c r="F68" s="2">
+      <c r="G73" s="2">
         <v>0.53754013776779097</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H73" s="2">
         <v>0.73287247804562505</v>
       </c>
-      <c r="H68" s="2">
+      <c r="I73" s="2">
         <v>0.74761798144140101</v>
       </c>
-      <c r="I68" s="2">
+      <c r="J73" s="2">
         <v>0.73882468130173096</v>
       </c>
-      <c r="J68" s="2">
+      <c r="K73" s="2">
         <v>0.92368833495036895</v>
       </c>
-      <c r="K68" s="2">
+      <c r="L73" s="2">
         <v>0.51847152772594896</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F35:F52">
+  <conditionalFormatting sqref="G37:G55">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3287,7 +3591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F33">
+  <conditionalFormatting sqref="G18:G35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3299,7 +3603,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J52">
+  <conditionalFormatting sqref="K51:K55">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3311,7 +3615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K52">
+  <conditionalFormatting sqref="L51:L55">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3330,549 +3634,1370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A22D4B-3433-4058-8F62-A7373E87BE86}">
-  <dimension ref="A2:T22"/>
+  <dimension ref="A2:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
-    <col min="13" max="13" width="9.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="39.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="10" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" style="10" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="10" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:21" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="15">
         <v>4908992</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="14">
         <v>0.94319146871566695</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="14">
         <v>0.89281916618347101</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="14">
         <v>0.91801418439716298</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="14">
         <v>0.92007978723404205</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="14">
         <v>0.91884042553191403</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="14">
         <v>0.99154255319148898</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="14">
         <v>0.88888297872340405</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="15">
         <v>4908992</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="14">
         <v>0.94223403930663996</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="14">
         <v>0.89388298988342196</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="14">
         <v>0.91813829787234003</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="14">
         <v>0.91984042553191403</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="14">
         <v>0.91881914893617</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="14">
         <v>0.99303191489361697</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="14">
         <v>0.89063829787233995</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4734656</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.99910002946853604</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.97630000114440896</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.94660001993179299</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.97395166666666599</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.97405595238095199</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C7" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="15">
         <v>4824768</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E7" s="14">
         <v>0.99919998645782404</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F7" s="14">
         <v>0.97790002822875899</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G7" s="14">
         <v>0.94830000400543202</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H7" s="14">
         <v>0.97509833333333296</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I7" s="14">
         <v>0.97543333333333304</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J7" s="14">
         <v>0.97524047619047605</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K7" s="14">
         <v>0.99839999999999995</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L7" s="14">
         <v>0.94740000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="15">
         <v>4824768</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="14">
         <v>0.99889999628067005</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F8" s="14">
         <v>0.97780001163482599</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G8" s="14">
         <v>0.94919997453689497</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H8" s="14">
         <v>0.97526000000000002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I8" s="14">
         <v>0.97586666666666599</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J8" s="14">
         <v>0.97551785714285699</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K8" s="14">
         <v>0.997</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L8" s="14">
         <v>0.94769999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="21">
+        <v>4.84</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.93359999999999999</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.94089999999999996</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="K10" s="14">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15">
         <v>5229632</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E11" s="14">
         <v>0.98790001869201605</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F11" s="14">
         <v>0.94279998540878296</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G11" s="14">
         <v>0.91219997406005804</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H11" s="14">
         <v>0.94735333333333305</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I11" s="14">
         <v>0.94893333333333296</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J11" s="14">
         <v>0.94800833333333301</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K11" s="14">
         <v>0.99180000000000001</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L11" s="14">
         <v>0.90949999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="15">
         <v>5229632</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E12" s="14">
         <v>0.98710000514984098</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F12" s="14">
         <v>0.94010001420974698</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G12" s="14">
         <v>0.90969997644424405</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H12" s="14">
         <v>0.94533833333333295</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I12" s="14">
         <v>0.94730000000000003</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J12" s="14">
         <v>0.946154761904761</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K12" s="14">
         <v>0.9899</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L12" s="14">
         <v>0.90580000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5551424</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.7833</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.57079999999999997</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="K14" s="14">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C15" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="15">
         <v>7845184</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E15" s="14">
         <v>0.86930000782012895</v>
       </c>
-      <c r="E12" s="2">
+      <c r="F15" s="14">
         <v>0.79309999942779497</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G15" s="14">
         <v>0.66380000114440896</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H15" s="14">
         <v>0.77425166666666601</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I15" s="14">
         <v>0.79196666666666604</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J15" s="14">
         <v>0.78118968253968202</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K15" s="14">
         <v>0.89800000000000002</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L15" s="14">
         <v>0.63800000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="15">
         <v>7845184</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E16" s="14">
         <v>0.86809998750686601</v>
       </c>
-      <c r="E13" s="2">
+      <c r="F16" s="14">
         <v>0.78729999065399103</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G16" s="14">
         <v>0.66229999065399103</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H16" s="14">
+        <v>0.77096833333333303</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.77854285714285698</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0.63360000000000005</v>
+      </c>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="15">
+        <v>7845184</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.86809998750686601</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.78729999065399103</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.66229999065399103</v>
+      </c>
+      <c r="H17" s="14">
         <v>0.77838166666666597</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I17" s="14">
         <v>0.79559999999999897</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J17" s="14">
         <v>0.78515198412698395</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K17" s="14">
         <v>0.89780000000000004</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L17" s="14">
         <v>0.64410000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="15">
+        <v>47555904</v>
+      </c>
+      <c r="E19" s="14">
+        <v>0.35657575726509</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.16983085870742701</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2.14014500379562E-2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.149700839949372</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.208606604533425</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0.171325289982521</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.21435968243010001</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1.55333103210217E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C20" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="15">
         <v>106014016</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E20" s="14">
         <v>0.40421125292777998</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F20" s="14">
         <v>0.21608561277389499</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G20" s="14">
         <v>0.13393165171146301</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H20" s="14">
         <v>0.23469105971694801</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I20" s="14">
         <v>0.303302266712691</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J20" s="14">
         <v>0.260100761050018</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K20" s="14">
         <v>0.27338626164998198</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L20" s="14">
         <v>8.6296168450120794E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B21" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C21" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="15">
         <v>106014016</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E21" s="14">
         <v>0.36589574813842701</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F21" s="14">
         <v>0.17777010798454199</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G21" s="14">
         <v>0.108733169734478</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H21" s="14">
         <v>0.20288229202623401</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I21" s="14">
         <v>0.265562075710505</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J21" s="14">
         <v>0.22620691355589501</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K21" s="14">
         <v>0.24093890231273701</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L21" s="14">
         <v>6.2823610631687898E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="15">
+        <v>25853248</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.46008455753326399</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.122855007648468</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1.56677439808845E-2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.171047832214208</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.24040454281687801</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.19786399182071901</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.13603581198706699</v>
+      </c>
+      <c r="L23" s="14">
+        <v>8.7043024123352394E-3</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C24" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="15">
         <v>81165632</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E24" s="14">
         <v>0.53344941139221103</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F24" s="14">
         <v>0.195225074887275</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G24" s="14">
         <v>0.14051231741905201</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H24" s="14">
         <v>0.267255243305976</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I24" s="14">
         <v>0.34692862472021802</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J24" s="14">
         <v>0.29728054696967898</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K24" s="14">
         <v>0.29146978363591097</v>
       </c>
-      <c r="K18" s="2">
+      <c r="L24" s="14">
         <v>8.1323053966674899E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B25" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C25" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="15">
         <v>81165632</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E25" s="14">
         <v>0.475006222724914</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F25" s="14">
         <v>0.16388958692550601</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G25" s="14">
         <v>0.117383733391761</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H25" s="14">
         <v>0.23561303158418301</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I25" s="14">
         <v>0.31401807178976998</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J25" s="14">
         <v>0.26498087421986899</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K25" s="14">
         <v>0.25764735140512302</v>
       </c>
-      <c r="K19" s="2">
+      <c r="L25" s="14">
         <v>6.1924894304899197E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="B27" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="18">
+        <v>5973312</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0.86976641416549605</v>
+      </c>
+      <c r="F27" s="14">
+        <v>0.77819240093231201</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.55037689208984297</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.73347948851904299</v>
+      </c>
+      <c r="I27" s="14">
+        <v>0.75758141154812497</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.74360870924980105</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.86946787073662202</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0.49343234569743999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>97</v>
       </c>
+      <c r="B28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="18">
+        <v>13579328</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0.89876109361648504</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.78599148988723699</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.57153517007827703</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.75019466626862596</v>
+      </c>
+      <c r="I28" s="14">
+        <v>0.76044232156628599</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.75436821866592696</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0.94473468169266295</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0.55593701022464304</v>
+      </c>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="18">
+        <v>13579328</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0.89495486021041804</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.77572953701019198</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.53754013776779097</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.73287247804562505</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0.74761798144140101</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0.73882468130173096</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0.92368833495036895</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0.51847152772594896</v>
+      </c>
+      <c r="M29" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="iconSet" priority="68">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="iconSet" priority="67">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D21">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D25">
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E25">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F25">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G25">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H25">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I25">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J25">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K25">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L25">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E21">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F21">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G21">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H21">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K21">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L21">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E12">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F12">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I12">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J12">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K12">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H8">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -3882,6 +5007,264 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="iconSet" priority="22">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I29">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work Directory\Projects\Deep Learning\HD-CapsNet\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E00384B-3A0A-44CB-B4D2-1CF8CB81F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06D90DB-F06C-44FA-A707-9ACEA96AE7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,7 +892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -935,27 +935,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1003,7 +986,362 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1316,17 +1654,17 @@
   <dimension ref="A2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="10" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -1354,7 +1692,7 @@
       <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1409,9 +1747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="17"/>
-    </row>
+    <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>92</v>
@@ -1419,7 +1755,7 @@
       <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1428,7 +1764,7 @@
       <c r="B5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="7">
         <v>4908992</v>
       </c>
@@ -1462,7 +1798,7 @@
       <c r="B6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="7">
         <v>4908992</v>
       </c>
@@ -1496,7 +1832,7 @@
       <c r="B7" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="7">
         <v>5153984</v>
       </c>
@@ -1530,7 +1866,7 @@
       <c r="B8" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="7">
         <v>5153984</v>
       </c>
@@ -1559,11 +1895,11 @@
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
-      <c r="C9" s="21"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
-      <c r="C10" s="21"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1572,7 +1908,7 @@
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="7">
         <v>4734656</v>
       </c>
@@ -1608,7 +1944,7 @@
       <c r="B12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="7">
         <v>4824768</v>
       </c>
@@ -1644,7 +1980,7 @@
       <c r="B13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="11"/>
       <c r="D13" s="7">
         <v>4824768</v>
       </c>
@@ -1680,7 +2016,7 @@
       <c r="B14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="7">
         <v>4989120</v>
       </c>
@@ -1716,7 +2052,7 @@
       <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="7">
         <v>4989120</v>
       </c>
@@ -1747,11 +2083,9 @@
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="17"/>
-    </row>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>1</v>
@@ -1969,8 +2303,8 @@
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>4.84</v>
+      <c r="D24" s="7">
+        <v>4836416</v>
       </c>
       <c r="E24" s="2">
         <v>0.98760000000000003</v>
@@ -2249,7 +2583,7 @@
       <c r="B32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="7">
         <v>5229632</v>
       </c>
@@ -2285,7 +2619,7 @@
       <c r="B33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="7">
         <v>5229632</v>
       </c>
@@ -2391,7 +2725,7 @@
       <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="8"/>
       <c r="D37">
         <v>8.52</v>
       </c>
@@ -2427,7 +2761,7 @@
       <c r="B38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="9"/>
       <c r="D38">
         <v>8.52</v>
       </c>
@@ -2463,7 +2797,7 @@
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="19"/>
+      <c r="C39" s="8"/>
       <c r="D39">
         <v>8.3699999999999992</v>
       </c>
@@ -2499,7 +2833,7 @@
       <c r="B40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="19"/>
+      <c r="C40" s="8"/>
       <c r="D40">
         <v>5.22</v>
       </c>
@@ -2535,7 +2869,7 @@
       <c r="B41" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="8"/>
       <c r="D41">
         <v>8.3699999999999992</v>
       </c>
@@ -2571,7 +2905,7 @@
       <c r="B42" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C42" s="19"/>
+      <c r="C42" s="8"/>
       <c r="D42">
         <v>5.22</v>
       </c>
@@ -2607,7 +2941,7 @@
       <c r="B43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="19"/>
+      <c r="C43" s="8"/>
       <c r="D43">
         <v>5.55</v>
       </c>
@@ -2643,7 +2977,7 @@
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="8"/>
       <c r="D44">
         <v>5.55</v>
       </c>
@@ -2679,7 +3013,7 @@
       <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="8"/>
       <c r="D45">
         <v>5.55</v>
       </c>
@@ -2715,7 +3049,7 @@
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="19"/>
+      <c r="C46" s="8"/>
       <c r="D46">
         <v>5.55</v>
       </c>
@@ -2751,7 +3085,7 @@
       <c r="B47" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="8"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -2769,7 +3103,7 @@
       <c r="B48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="8"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
@@ -2787,7 +3121,7 @@
       <c r="B49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="8"/>
       <c r="D49" s="7">
         <v>6104384</v>
       </c>
@@ -2823,7 +3157,7 @@
       <c r="B50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="19"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="7">
         <v>6104384</v>
       </c>
@@ -2859,7 +3193,7 @@
       <c r="B51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="24"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="7">
         <v>7845184</v>
       </c>
@@ -2888,41 +3222,41 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="7">
         <v>7845184</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="2">
         <v>0.86809998750686601</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="2">
         <v>0.78729999065399103</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="2">
         <v>0.66229999065399103</v>
       </c>
-      <c r="H52" s="16">
+      <c r="H52" s="2">
         <v>0.77096833333333303</v>
       </c>
-      <c r="I52" s="16">
+      <c r="I52" s="2">
         <v>0.79020000000000001</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="2">
         <v>0.77854285714285698</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="2">
         <v>0.88619999999999999</v>
       </c>
-      <c r="L52" s="16">
+      <c r="L52" s="2">
         <v>0.63360000000000005</v>
       </c>
     </row>
@@ -2933,7 +3267,7 @@
       <c r="B53" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="12" t="s">
         <v>106</v>
       </c>
       <c r="D53" s="7">
@@ -2971,7 +3305,7 @@
       <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="8"/>
       <c r="D54" s="7">
         <v>11676992</v>
       </c>
@@ -3007,7 +3341,7 @@
       <c r="B55" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="19"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="7">
         <v>11676992</v>
       </c>
@@ -3078,7 +3412,7 @@
       <c r="B58" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="19"/>
+      <c r="C58" s="8"/>
       <c r="D58" s="7">
         <v>49746752</v>
       </c>
@@ -3114,7 +3448,7 @@
       <c r="B59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="19"/>
+      <c r="C59" s="8"/>
       <c r="D59" s="7">
         <v>49746752</v>
       </c>
@@ -3150,7 +3484,7 @@
       <c r="B60" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="12"/>
       <c r="D60" s="7">
         <v>106014016</v>
       </c>
@@ -3186,7 +3520,7 @@
       <c r="B61" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="24"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="7">
         <v>106014016</v>
       </c>
@@ -3217,7 +3551,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8"/>
-      <c r="C62" s="19"/>
+      <c r="C62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
@@ -3261,7 +3595,7 @@
       <c r="B64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="8"/>
       <c r="D64" s="7">
         <v>39340352</v>
       </c>
@@ -3297,7 +3631,7 @@
       <c r="B65" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="19"/>
+      <c r="C65" s="8"/>
       <c r="D65" s="7">
         <v>39340352</v>
       </c>
@@ -3333,7 +3667,7 @@
       <c r="B66" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="24"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="7">
         <v>81165632</v>
       </c>
@@ -3369,7 +3703,7 @@
       <c r="B67" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="24"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="7">
         <v>81165632</v>
       </c>
@@ -3440,7 +3774,7 @@
       <c r="B70" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="19"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="7">
         <v>9077312</v>
       </c>
@@ -3476,7 +3810,7 @@
       <c r="B71" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="19"/>
+      <c r="C71" s="8"/>
       <c r="D71" s="7">
         <v>9077312</v>
       </c>
@@ -3512,7 +3846,7 @@
       <c r="B72" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="7">
         <v>13579328</v>
       </c>
@@ -3548,7 +3882,7 @@
       <c r="B73" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="7">
         <v>13579328</v>
       </c>
@@ -3640,14 +3974,14 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:L29"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -3669,40 +4003,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -3731,22 +4065,22 @@
       </c>
     </row>
     <row r="3" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="17">
         <v>4908992</v>
       </c>
       <c r="E3" s="14">
         <v>0.94319146871566695</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="16" t="s">
         <v>96</v>
       </c>
       <c r="G3" s="14">
@@ -3770,22 +4104,22 @@
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="17">
         <v>4908992</v>
       </c>
       <c r="E4" s="14">
         <v>0.94223403930663996</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="16" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="14">
@@ -3809,31 +4143,20 @@
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="B5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="17">
         <v>4734656</v>
       </c>
       <c r="E6" s="14">
@@ -3863,16 +4186,16 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="17">
         <v>4824768</v>
       </c>
       <c r="E7" s="14">
@@ -3902,16 +4225,16 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="17">
         <v>4824768</v>
       </c>
       <c r="E8" s="14">
@@ -3941,10 +4264,9 @@
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -3956,17 +4278,17 @@
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="21">
-        <v>4.84</v>
+      <c r="D10" s="17">
+        <v>4836416</v>
       </c>
       <c r="E10" s="14">
         <v>0.98760000000000003</v>
@@ -3995,16 +4317,16 @@
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="17">
         <v>5229632</v>
       </c>
       <c r="E11" s="14">
@@ -4033,16 +4355,16 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="17">
         <v>5229632</v>
       </c>
       <c r="E12" s="14">
@@ -4070,30 +4392,17 @@
         <v>0.90580000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-    </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="17">
         <v>5551424</v>
       </c>
       <c r="E14" s="14">
@@ -4122,16 +4431,16 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="17">
         <v>7845184</v>
       </c>
       <c r="E15" s="14">
@@ -4160,17 +4469,17 @@
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="17">
         <v>7845184</v>
       </c>
       <c r="E16" s="14">
@@ -4197,16 +4506,16 @@
       <c r="L16" s="14">
         <v>0.63360000000000005</v>
       </c>
-      <c r="M16" s="19"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="15">
@@ -4238,30 +4547,17 @@
       </c>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="17">
         <v>47555904</v>
       </c>
       <c r="E19" s="14">
@@ -4290,16 +4586,16 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="17">
         <v>106014016</v>
       </c>
       <c r="E20" s="14">
@@ -4329,16 +4625,16 @@
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="17">
         <v>106014016</v>
       </c>
       <c r="E21" s="14">
@@ -4368,30 +4664,19 @@
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="17">
         <v>25853248</v>
       </c>
       <c r="E23" s="14">
@@ -4421,16 +4706,16 @@
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="17">
         <v>81165632</v>
       </c>
       <c r="E24" s="14">
@@ -4460,16 +4745,16 @@
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="17">
         <v>81165632</v>
       </c>
       <c r="E25" s="14">
@@ -4498,30 +4783,17 @@
       </c>
       <c r="M25" s="8"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-    </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>5973312</v>
       </c>
       <c r="E27" s="14">
@@ -4550,16 +4822,16 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>13579328</v>
       </c>
       <c r="E28" s="14">
@@ -4589,16 +4861,16 @@
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>13579328</v>
       </c>
       <c r="E29" s="14">
@@ -4628,644 +4900,170 @@
       <c r="M29" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D10:D12">
-    <cfRule type="iconSet" priority="69">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
+  <conditionalFormatting sqref="E6:E8">
+    <cfRule type="top10" dxfId="57" priority="55" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F8">
+    <cfRule type="top10" dxfId="54" priority="54" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G8">
+    <cfRule type="top10" dxfId="53" priority="53" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H8">
+    <cfRule type="top10" dxfId="52" priority="52" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I8">
+    <cfRule type="top10" dxfId="51" priority="51" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:J8">
+    <cfRule type="top10" dxfId="50" priority="50" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K8">
+    <cfRule type="top10" dxfId="49" priority="49" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L8">
+    <cfRule type="top10" dxfId="48" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E12">
+    <cfRule type="top10" dxfId="47" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F12">
+    <cfRule type="top10" dxfId="46" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G12">
+    <cfRule type="top10" dxfId="45" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H12">
+    <cfRule type="top10" dxfId="44" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I12">
+    <cfRule type="top10" dxfId="43" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J12">
+    <cfRule type="top10" dxfId="42" priority="42" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K12">
+    <cfRule type="top10" dxfId="41" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L12">
+    <cfRule type="top10" dxfId="40" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:E16">
+    <cfRule type="top10" dxfId="39" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F16">
+    <cfRule type="top10" dxfId="38" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="top10" dxfId="37" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H16">
+    <cfRule type="top10" dxfId="36" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16">
+    <cfRule type="top10" dxfId="35" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J16">
+    <cfRule type="top10" dxfId="34" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K16">
+    <cfRule type="top10" dxfId="33" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L16">
+    <cfRule type="top10" dxfId="32" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E21">
+    <cfRule type="top10" dxfId="31" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F21">
+    <cfRule type="top10" dxfId="30" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G21">
+    <cfRule type="top10" dxfId="29" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H21">
+    <cfRule type="top10" dxfId="28" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="top10" dxfId="27" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="top10" dxfId="26" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K21">
+    <cfRule type="top10" dxfId="25" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L21">
+    <cfRule type="top10" dxfId="24" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E25">
+    <cfRule type="top10" dxfId="23" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F25">
+    <cfRule type="top10" dxfId="22" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G25">
+    <cfRule type="top10" dxfId="21" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H25">
+    <cfRule type="top10" dxfId="20" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I25">
+    <cfRule type="top10" dxfId="19" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J25">
+    <cfRule type="top10" dxfId="18" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K25">
+    <cfRule type="top10" dxfId="17" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L25">
+    <cfRule type="top10" dxfId="16" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E29">
+    <cfRule type="top10" dxfId="15" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F29">
+    <cfRule type="top10" dxfId="14" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G29">
+    <cfRule type="top10" dxfId="13" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="top10" dxfId="12" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I29">
+    <cfRule type="top10" dxfId="11" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J29">
+    <cfRule type="top10" dxfId="10" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K29">
+    <cfRule type="top10" dxfId="9" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L29">
+    <cfRule type="top10" dxfId="8" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D29">
+    <cfRule type="top10" dxfId="7" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D25">
+    <cfRule type="top10" dxfId="6" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D21">
+    <cfRule type="top10" dxfId="5" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="top10" dxfId="4" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D8">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D4">
-    <cfRule type="iconSet" priority="68">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
-    <cfRule type="iconSet" priority="67">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D21">
-    <cfRule type="iconSet" priority="65">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D25">
-    <cfRule type="iconSet" priority="64">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E25">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F25">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G25">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H25">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I25">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J25">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K25">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:L25">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E21">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19:F21">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G21">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H21">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I21">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J21">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K21">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L21">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E12">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F12">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G12">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H12">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J12">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K12">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H8">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I8">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:J8">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K8">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L8">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D29">
-    <cfRule type="iconSet" priority="22">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E29">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G29">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H29">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I29">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J29">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K29">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L29">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E16">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I16">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J16">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K16">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
+  <conditionalFormatting sqref="D10:D12">
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
